--- a/tests/test.xlsx
+++ b/tests/test.xlsx
@@ -354,7 +354,7 @@
       <name val="ＭＳ ゴシック"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -363,9 +363,6 @@
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -417,46 +414,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="14">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="4" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="4" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="4" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="5" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="6" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="6" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="7" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="7" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="8" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="9" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
@@ -754,7 +751,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
@@ -803,7 +800,7 @@
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" r:id="rId1"/>
   <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
     <oddHeader/>
     <oddFooter/>
@@ -816,7 +813,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
@@ -890,7 +887,7 @@
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" r:id="rId1"/>
   <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
     <oddHeader/>
     <oddFooter/>
@@ -903,7 +900,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
@@ -937,7 +934,7 @@
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" r:id="rId1"/>
   <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
     <oddHeader/>
     <oddFooter/>
@@ -950,7 +947,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
@@ -991,7 +988,7 @@
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" r:id="rId1"/>
   <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
     <oddHeader/>
     <oddFooter/>
@@ -1004,7 +1001,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
@@ -1197,7 +1194,7 @@
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" r:id="rId1"/>
   <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
     <oddHeader/>
     <oddFooter/>
@@ -1210,7 +1207,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
@@ -1354,7 +1351,7 @@
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" r:id="rId1"/>
   <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
     <oddHeader/>
     <oddFooter/>
@@ -1367,7 +1364,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
@@ -1456,7 +1453,7 @@
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" r:id="rId1"/>
   <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
     <oddHeader/>
     <oddFooter/>
@@ -1469,7 +1466,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
@@ -1653,7 +1650,7 @@
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" r:id="rId1"/>
   <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
     <oddHeader/>
     <oddFooter/>
@@ -1666,7 +1663,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
@@ -1742,7 +1739,7 @@
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" r:id="rId1"/>
   <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
     <oddHeader/>
     <oddFooter/>
@@ -1755,7 +1752,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
@@ -1853,7 +1850,7 @@
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" r:id="rId1"/>
   <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
     <oddHeader/>
     <oddFooter/>
@@ -1866,7 +1863,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
@@ -1926,7 +1923,7 @@
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" r:id="rId1"/>
   <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
     <oddHeader/>
     <oddFooter/>
@@ -1939,7 +1936,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
@@ -1997,7 +1994,7 @@
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" r:id="rId1"/>
   <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
     <oddHeader/>
     <oddFooter/>
@@ -2010,7 +2007,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
@@ -2127,7 +2124,7 @@
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" r:id="rId1"/>
   <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
     <oddHeader/>
     <oddFooter/>

--- a/tests/test.xlsx
+++ b/tests/test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="9" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
+    <workbookView activeTab="11" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet name="a{strtoupper($st)}z" sheetId="1" r:id="rId4"/>
@@ -18,8 +18,7 @@
     <sheet name="merge" sheetId="9" r:id="rId12"/>
     <sheet name="effector" sheetId="10" r:id="rId13"/>
     <sheet name="misc" sheetId="11" r:id="rId14"/>
-    <sheet name="smarty" sheetId="12" r:id="rId15"/>
-    <sheet name="util" sheetId="13" r:id="rId16"/>
+    <sheet name="util" sheetId="12" r:id="rId15"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="116">
   <si>
     <t>{template A1:B2}{$value}value</t>
   </si>
@@ -182,6 +181,81 @@
     <t>{$v}</t>
   </si>
   <si>
+    <r>
+      <t xml:space="preserve">{roweach $dummys</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="ＭＳ ゴシック"/>
+        <b val="false"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FF000000"/>
+        <sz val="11"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">3</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="ＭＳ ゴシック"/>
+        <b val="false"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FF000000"/>
+        <sz val="11"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">}{$index}{$first?"first":""}{$last?"last":""}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">{roweach $</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="ＭＳ ゴシック"/>
+        <b val="false"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FF000000"/>
+        <sz val="11"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">children</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="ＭＳ ゴシック"/>
+        <b val="false"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FF000000"/>
+        <sz val="11"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">{/roweach}</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="ＭＳ ゴシック"/>
+        <b val="false"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FF000000"/>
+        <sz val="11"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">{/roweach}</t>
+    </r>
+  </si>
+  <si>
     <t>{coleach $dummys1}</t>
   </si>
   <si>
@@ -299,21 +373,6 @@
     <t>{template A1:A1}</t>
   </si>
   <si>
-    <t>ここからEval</t>
-  </si>
-  <si>
-    <t>{strtoupper($hoge)}</t>
-  </si>
-  <si>
-    <t>ここからSmarty</t>
-  </si>
-  <si>
-    <t>{{$hoge|smodf}}</t>
-  </si>
-  <si>
-    <t>{{sfunc value=$hoge}}</t>
-  </si>
-  <si>
     <t>d</t>
   </si>
   <si>
@@ -336,6 +395,177 @@
   </si>
   <si>
     <t>xyz</t>
+  </si>
+  <si>
+    <t>longlonglong</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>middle</t>
+  </si>
+  <si>
+    <t>a1</t>
+  </si>
+  <si>
+    <t>b1</t>
+  </si>
+  <si>
+    <t>c1</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">a</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="ＭＳ ゴシック"/>
+        <b val="false"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FF000000"/>
+        <sz val="11"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">b</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="ＭＳ ゴシック"/>
+        <b val="false"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FF000000"/>
+        <sz val="11"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">c</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="ＭＳ ゴシック"/>
+        <b val="false"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FF000000"/>
+        <sz val="11"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">a</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="ＭＳ ゴシック"/>
+        <b val="false"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FF000000"/>
+        <sz val="11"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">b</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="ＭＳ ゴシック"/>
+        <b val="false"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FF000000"/>
+        <sz val="11"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">c</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="ＭＳ ゴシック"/>
+        <b val="false"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FF000000"/>
+        <sz val="11"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">a</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="ＭＳ ゴシック"/>
+        <b val="false"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FF000000"/>
+        <sz val="11"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">4</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">b</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="ＭＳ ゴシック"/>
+        <b val="false"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FF000000"/>
+        <sz val="11"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">4</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">c</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="ＭＳ ゴシック"/>
+        <b val="false"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FF000000"/>
+        <sz val="11"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">4</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -354,15 +584,12 @@
       <name val="ＭＳ ゴシック"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -396,6 +623,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
@@ -413,7 +646,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="20">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -447,13 +680,31 @@
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="7" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="7" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="7" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="7" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="7" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="8" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="8" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="9" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
@@ -800,7 +1051,7 @@
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
   <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
     <oddHeader/>
     <oddFooter/>
@@ -819,7 +1070,7 @@
   </sheetPr>
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -830,64 +1081,64 @@
   <sheetData>
     <row r="1" spans="1:5" customHeight="1" ht="18">
       <c r="A1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:5" customHeight="1" ht="18">
       <c r="A2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:5" customHeight="1" ht="18">
       <c r="A3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:5" customHeight="1" ht="18">
       <c r="A4" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:5" customHeight="1" ht="18">
       <c r="A5" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C5" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D5" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E5" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:5" customHeight="1" ht="18">
       <c r="A6" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:5" customHeight="1" ht="18">
       <c r="A7" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:5" customHeight="1" ht="18">
       <c r="A8" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
   <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
     <oddHeader/>
     <oddFooter/>
@@ -914,27 +1165,27 @@
   <sheetData>
     <row r="1" spans="1:3" customHeight="1" ht="18">
       <c r="A1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:3" customHeight="1" ht="18">
       <c r="A2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:3" customHeight="1" ht="18">
       <c r="A3" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C3" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
   <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
     <oddHeader/>
     <oddFooter/>
@@ -951,64 +1202,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:A5"/>
-  <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A5" sqref="A5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr customHeight="true" defaultRowHeight="18" defaultColWidth="12.5" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData>
-    <row r="1" spans="1:1" customHeight="1" ht="18">
-      <c r="A1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" customHeight="1" ht="18">
-      <c r="A2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" customHeight="1" ht="18">
-      <c r="A3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" customHeight="1" ht="18">
-      <c r="A4" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" customHeight="1" ht="18">
-      <c r="A5" t="s">
-        <v>94</v>
-      </c>
-    </row>
-  </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" r:id="rId1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
   <dimension ref="A1:AC29"/>
   <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="true" defaultRowHeight="18" defaultColWidth="3" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1018,100 +1215,100 @@
   <sheetData>
     <row r="1" spans="1:29" customHeight="1" ht="18">
       <c r="A1" s="5" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:29" customHeight="1" ht="18">
       <c r="A2" s="5" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D2" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>60</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:29" customHeight="1" ht="18">
       <c r="A3" s="5" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>97</v>
-      </c>
       <c r="E3" s="5" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:29" customHeight="1" ht="18">
       <c r="A4" s="5" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D4" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>100</v>
-      </c>
       <c r="E4" s="5" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:29" customHeight="1" ht="18">
       <c r="A5" s="5" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:29" customHeight="1" ht="18">
-      <c r="B7" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
+      <c r="B7" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
     </row>
     <row r="10" spans="1:29" customHeight="1" ht="18">
       <c r="A10" s="5">
@@ -1166,23 +1363,83 @@
     </row>
     <row r="14" spans="1:29" customHeight="1" ht="18">
       <c r="A14" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B14" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C14" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:29" customHeight="1" ht="18">
       <c r="A15" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:29" customHeight="1" ht="18">
       <c r="A16" t="s">
-        <v>60</v>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29" customHeight="1" ht="18">
+      <c r="A18" s="16"/>
+      <c r="B18" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29" customHeight="1" ht="18">
+      <c r="A19" s="16"/>
+      <c r="B19" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29" customHeight="1" ht="18">
+      <c r="A20" s="16"/>
+      <c r="B20" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29" customHeight="1" ht="18">
+      <c r="A21" s="16"/>
+      <c r="B21" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29" customHeight="1" ht="18">
+      <c r="A22" s="16"/>
+      <c r="B22" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="D22" s="16" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="29" spans="1:29" customHeight="1" ht="18" s="9" customFormat="1"/>
@@ -1194,7 +1451,7 @@
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
   <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
     <oddHeader/>
     <oddFooter/>
@@ -1351,7 +1608,7 @@
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
   <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
     <oddHeader/>
     <oddFooter/>
@@ -1453,7 +1710,7 @@
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
   <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
     <oddHeader/>
     <oddFooter/>
@@ -1650,7 +1907,7 @@
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
   <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
     <oddHeader/>
     <oddFooter/>
@@ -1667,10 +1924,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="true" defaultRowHeight="18" defaultColWidth="12.5" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1707,7 +1964,7 @@
       <c r="B4" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="11" t="s">
         <v>48</v>
       </c>
       <c r="D4" s="3" t="s">
@@ -1735,11 +1992,52 @@
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
     </row>
+    <row r="6" spans="1:8" customHeight="1" ht="18">
+      <c r="B6" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+    </row>
+    <row r="7" spans="1:8" customHeight="1" ht="18">
+      <c r="B7" s="15"/>
+      <c r="C7" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7" s="14"/>
+      <c r="H7" s="15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" customHeight="1" ht="18">
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+    </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
   <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
     <oddHeader/>
     <oddFooter/>
@@ -1775,7 +2073,7 @@
     </row>
     <row r="2" spans="1:8" customHeight="1" ht="18">
       <c r="B2" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C2" s="2"/>
     </row>
@@ -1807,13 +2105,13 @@
     </row>
     <row r="8" spans="1:8" customHeight="1" ht="18">
       <c r="B8" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C8" s="2"/>
     </row>
     <row r="10" spans="1:8" customHeight="1" ht="18">
       <c r="A10" s="3" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:8" customHeight="1" ht="18">
@@ -1823,7 +2121,7 @@
     </row>
     <row r="12" spans="1:8" customHeight="1" ht="18">
       <c r="A12" s="3" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:8" customHeight="1" ht="18">
@@ -1833,7 +2131,7 @@
     </row>
     <row r="14" spans="1:8" customHeight="1" ht="18">
       <c r="A14" s="3" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:8" customHeight="1" ht="18">
@@ -1843,14 +2141,14 @@
     </row>
     <row r="16" spans="1:8" customHeight="1" ht="18">
       <c r="A16" s="3" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
   <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
     <oddHeader/>
     <oddFooter/>
@@ -1877,53 +2175,53 @@
   <sheetData>
     <row r="1" spans="1:4" customHeight="1" ht="18">
       <c r="B1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:4" customHeight="1" ht="18">
       <c r="B2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>50</v>
       </c>
       <c r="D2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:4" customHeight="1" ht="18">
       <c r="B3" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D3" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:4" customHeight="1" ht="18">
       <c r="B4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
   <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
     <oddHeader/>
     <oddFooter/>
@@ -1950,51 +2248,51 @@
   <sheetData>
     <row r="1" spans="1:5" customHeight="1" ht="18">
       <c r="B1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:5" customHeight="1" ht="18">
       <c r="B2" s="4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>50</v>
       </c>
       <c r="D2" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2" t="s">
         <v>67</v>
-      </c>
-      <c r="E2" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:5" customHeight="1" ht="18">
       <c r="B3" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C3" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D3" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E3" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
   <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
     <oddHeader/>
     <oddFooter/>
@@ -2021,93 +2319,93 @@
   <sheetData>
     <row r="2" spans="1:5" customHeight="1" ht="18">
       <c r="A2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
+        <v>71</v>
+      </c>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
     </row>
     <row r="3" spans="1:5" customHeight="1" ht="18">
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
       <c r="D3" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:5" customHeight="1" ht="18">
       <c r="B5" t="s">
-        <v>69</v>
-      </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
+        <v>72</v>
+      </c>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
       <c r="E5" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:5" customHeight="1" ht="18">
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
     </row>
     <row r="7" spans="1:5" customHeight="1" ht="18">
       <c r="A7" t="s">
-        <v>70</v>
-      </c>
-      <c r="B7" s="11"/>
+        <v>73</v>
+      </c>
+      <c r="B7" s="17"/>
       <c r="C7" s="10"/>
     </row>
     <row r="8" spans="1:5" customHeight="1" ht="18">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
+      <c r="A8" s="17"/>
+      <c r="B8" s="17"/>
       <c r="C8" s="10"/>
     </row>
     <row r="9" spans="1:5" customHeight="1" ht="18">
-      <c r="A9" s="11"/>
-      <c r="B9" s="11"/>
+      <c r="A9" s="17"/>
+      <c r="B9" s="17"/>
       <c r="C9" s="10"/>
     </row>
     <row r="10" spans="1:5" customHeight="1" ht="18">
       <c r="A10" t="s">
-        <v>52</v>
-      </c>
-      <c r="B10" s="11"/>
+        <v>55</v>
+      </c>
+      <c r="B10" s="17"/>
       <c r="C10" s="10"/>
     </row>
     <row r="12" spans="1:5" customHeight="1" ht="18">
       <c r="B12" t="s">
-        <v>71</v>
-      </c>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
+        <v>74</v>
+      </c>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
       <c r="E12" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:5" customHeight="1" ht="18">
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
     </row>
     <row r="16" spans="1:5" customHeight="1" ht="18">
       <c r="B16" t="s">
-        <v>72</v>
-      </c>
-      <c r="C16" s="11"/>
+        <v>75</v>
+      </c>
+      <c r="C16" s="17"/>
     </row>
     <row r="17" spans="1:5" customHeight="1" ht="18">
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
     </row>
     <row r="18" spans="1:5" customHeight="1" ht="18">
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
     </row>
     <row r="19" spans="1:5" customHeight="1" ht="18">
       <c r="B19" t="s">
-        <v>67</v>
-      </c>
-      <c r="C19" s="11"/>
+        <v>70</v>
+      </c>
+      <c r="C19" s="17"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
@@ -2124,7 +2422,7 @@
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
   <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
     <oddHeader/>
     <oddFooter/>

--- a/tests/test.xlsx
+++ b/tests/test.xlsx
@@ -7,20 +7,21 @@
     <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="sheet1" sheetId="1" r:id="rId4"/>
-    <sheet name="sheet2{$title}" sheetId="2" r:id="rId5"/>
-    <sheet name="a{strtoupper($st)}z" sheetId="3" r:id="rId6"/>
-    <sheet name="rowif" sheetId="4" r:id="rId7"/>
-    <sheet name="colif" sheetId="5" r:id="rId8"/>
-    <sheet name="ifmisc" sheetId="6" r:id="rId9"/>
-    <sheet name="roweach" sheetId="7" r:id="rId10"/>
-    <sheet name="coleach" sheetId="8" r:id="rId11"/>
-    <sheet name="rowshift" sheetId="9" r:id="rId12"/>
-    <sheet name="colshift" sheetId="10" r:id="rId13"/>
-    <sheet name="merge" sheetId="11" r:id="rId14"/>
-    <sheet name="effector" sheetId="12" r:id="rId15"/>
-    <sheet name="misc" sheetId="13" r:id="rId16"/>
-    <sheet name="util" sheetId="14" r:id="rId17"/>
+    <sheet name="active" sheetId="1" r:id="rId4"/>
+    <sheet name="sheet1" sheetId="2" r:id="rId5"/>
+    <sheet name="sheet2{$title}" sheetId="3" r:id="rId6"/>
+    <sheet name="a{strtoupper($st)}z" sheetId="4" r:id="rId7"/>
+    <sheet name="rowif" sheetId="5" r:id="rId8"/>
+    <sheet name="colif" sheetId="6" r:id="rId9"/>
+    <sheet name="ifmisc" sheetId="7" r:id="rId10"/>
+    <sheet name="roweach" sheetId="8" r:id="rId11"/>
+    <sheet name="coleach" sheetId="9" r:id="rId12"/>
+    <sheet name="rowshift" sheetId="10" r:id="rId13"/>
+    <sheet name="colshift" sheetId="11" r:id="rId14"/>
+    <sheet name="merge" sheetId="12" r:id="rId15"/>
+    <sheet name="effector" sheetId="13" r:id="rId16"/>
+    <sheet name="misc" sheetId="14" r:id="rId17"/>
+    <sheet name="util" sheetId="15" r:id="rId18"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="131">
   <si>
     <t>{$A1}</t>
   </si>
@@ -379,6 +380,128 @@
   </si>
   <si>
     <t>{$Border([])}</t>
+  </si>
+  <si>
+    <t>{$Validation(['type' =&gt; 'whole', 'formula1' =&gt; 10, 'formula2' =&gt; 20])}ValidationMinMax</t>
+  </si>
+  <si>
+    <t>{$ValidationList(['a', '"b"', '"\\c"'])}ValidationList</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">{$ValidationList(['formula</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="ＭＳ ゴシック"/>
+        <b val="false"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FF000000"/>
+        <sz val="11"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">1</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="ＭＳ ゴシック"/>
+        <b val="false"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FF000000"/>
+        <sz val="11"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">' =&gt; ['a', '"b"', '"\\c"'], 'prompt' =&gt; ['title', 'please input']])}ValidationPrompt</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">{$ValidationList(['formula</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="ＭＳ ゴシック"/>
+        <b val="false"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FF000000"/>
+        <sz val="11"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">1</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="ＭＳ ゴシック"/>
+        <b val="false"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FF000000"/>
+        <sz val="11"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">' =&gt; ['a', '"b"', '"\\c"'], 'error' =&gt; 'message'])}ValidationError</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">{$ValidationList(['formula</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="ＭＳ ゴシック"/>
+        <b val="false"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FF000000"/>
+        <sz val="11"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">1</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="ＭＳ ゴシック"/>
+        <b val="false"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FF000000"/>
+        <sz val="11"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">' =&gt; ['a', '"b"', '"\\c"'], 'warn' =&gt; 'message'])}ValidationWarn</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">{$ValidationList(['formula</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="ＭＳ ゴシック"/>
+        <b val="false"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FF000000"/>
+        <sz val="11"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">1</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="ＭＳ ゴシック"/>
+        <b val="false"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FF000000"/>
+        <sz val="11"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">' =&gt; ['a', '"b"', '"\\c"'], 'info' =&gt; 'message'])}ValidationInfo</t>
+    </r>
   </si>
   <si>
     <t>{$Image($Path)}</t>
@@ -670,26 +793,32 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+  <cellXfs count="22">
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
+      <alignment vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
+      <alignment vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
+      <alignment vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
@@ -703,32 +832,35 @@
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="6" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="6" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
+      <alignment vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
+      <alignment vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="7" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="7" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
+      <alignment vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="7" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="7" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
+      <alignment vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="7" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="7" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
+      <alignment vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="7" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="7" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
+      <alignment vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
@@ -1041,12 +1173,13 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="9" customWidth="true" style="16"/>
+    <col min="1" max="1" width="9" customWidth="true" style="17"/>
+    <col min="2" max="2" width="9" customWidth="true" style="17"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1083,10 +1216,10 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" r:id="rId1ps"/>
   <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
     <oddHeader/>
     <oddFooter/>
@@ -1104,7 +1237,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -1112,50 +1245,52 @@
   </sheetViews>
   <sheetFormatPr customHeight="true" defaultRowHeight="18" defaultColWidth="12.5" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:5" customHeight="1" ht="18">
+    <row r="1" spans="1:4" customHeight="1" ht="18">
       <c r="B1" t="s">
         <v>67</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" customHeight="1" ht="18">
+      <c r="B2" t="s">
         <v>70</v>
-      </c>
-      <c r="D1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" customHeight="1" ht="18">
-      <c r="B2" s="4" t="s">
-        <v>78</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="E2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" customHeight="1" ht="18">
+      <c r="D2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" customHeight="1" ht="18">
       <c r="B3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C3" t="s">
-        <v>71</v>
+        <v>72</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>73</v>
       </c>
       <c r="D3" t="s">
         <v>74</v>
       </c>
-      <c r="E3" t="s">
+    </row>
+    <row r="4" spans="1:4" customHeight="1" ht="18">
+      <c r="B4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D4" t="s">
         <v>77</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
@@ -1176,6 +1311,78 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr customHeight="true" defaultRowHeight="18" defaultColWidth="12.5" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" spans="1:5" customHeight="1" ht="18">
+      <c r="B1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" customHeight="1" ht="18">
+      <c r="B2" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" customHeight="1" ht="18">
+      <c r="B3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+  <tableParts count="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
@@ -1188,12 +1395,12 @@
       <c r="A2" t="s">
         <v>80</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
     </row>
     <row r="3" spans="1:5" customHeight="1" ht="18">
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
       <c r="D3" t="s">
         <v>33</v>
       </c>
@@ -1202,80 +1409,80 @@
       <c r="B5" t="s">
         <v>81</v>
       </c>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
       <c r="E5" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:5" customHeight="1" ht="18">
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
     </row>
     <row r="7" spans="1:5" customHeight="1" ht="18">
       <c r="A7" t="s">
         <v>82</v>
       </c>
-      <c r="B7" s="18"/>
+      <c r="B7" s="19"/>
       <c r="C7" s="10"/>
     </row>
     <row r="8" spans="1:5" customHeight="1" ht="18">
-      <c r="A8" s="18"/>
-      <c r="B8" s="18"/>
+      <c r="A8" s="19"/>
+      <c r="B8" s="19"/>
       <c r="C8" s="10"/>
     </row>
     <row r="9" spans="1:5" customHeight="1" ht="18">
-      <c r="A9" s="18"/>
-      <c r="B9" s="18"/>
+      <c r="A9" s="19"/>
+      <c r="B9" s="19"/>
       <c r="C9" s="10"/>
     </row>
     <row r="10" spans="1:5" customHeight="1" ht="18">
       <c r="A10" t="s">
         <v>64</v>
       </c>
-      <c r="B10" s="18"/>
+      <c r="B10" s="19"/>
       <c r="C10" s="10"/>
     </row>
     <row r="12" spans="1:5" customHeight="1" ht="18">
       <c r="B12" t="s">
         <v>83</v>
       </c>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
       <c r="E12" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:5" customHeight="1" ht="18">
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
     </row>
     <row r="16" spans="1:5" customHeight="1" ht="18">
       <c r="B16" t="s">
         <v>84</v>
       </c>
-      <c r="C16" s="18"/>
+      <c r="C16" s="19"/>
     </row>
     <row r="17" spans="1:5" customHeight="1" ht="18">
-      <c r="B17" s="18"/>
-      <c r="C17" s="18"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
     </row>
     <row r="18" spans="1:5" customHeight="1" ht="18">
-      <c r="B18" s="18"/>
-      <c r="C18" s="18"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
     </row>
     <row r="19" spans="1:5" customHeight="1" ht="18">
       <c r="B19" t="s">
         <v>79</v>
       </c>
-      <c r="C19" s="18"/>
+      <c r="C19" s="19"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells>
     <mergeCell ref="B17:B18"/>
     <mergeCell ref="C16:C19"/>
@@ -1302,15 +1509,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="true" defaultRowHeight="18" defaultColWidth="12.5" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1358,74 +1565,56 @@
         <v>94</v>
       </c>
     </row>
-    <row r="6" spans="1:5" customHeight="1" ht="18">
-      <c r="A6" t="s">
+    <row r="6" spans="1:5" customHeight="1" ht="18" s="17" customFormat="1">
+      <c r="A6" s="17" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="7" spans="1:5" customHeight="1" ht="18">
-      <c r="A7" t="s">
+    <row r="7" spans="1:5" customHeight="1" ht="18" s="17" customFormat="1">
+      <c r="A7" s="18" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="8" spans="1:5" customHeight="1" ht="18">
-      <c r="A8" t="s">
+    <row r="8" spans="1:5" customHeight="1" ht="18" s="17" customFormat="1">
+      <c r="A8" s="18" t="s">
         <v>97</v>
       </c>
     </row>
+    <row r="9" spans="1:5" customHeight="1" ht="18" s="17" customFormat="1">
+      <c r="A9" s="18" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" customHeight="1" ht="18" s="17" customFormat="1">
+      <c r="A10" s="18" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" customHeight="1" ht="18" s="17" customFormat="1">
+      <c r="A11" s="18" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" customHeight="1" ht="18">
+      <c r="A12" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" customHeight="1" ht="18">
+      <c r="A13" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" customHeight="1" ht="18">
+      <c r="A14" t="s">
+        <v>103</v>
+      </c>
+    </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-  <tableParts count="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:C3"/>
-  <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr customHeight="true" defaultRowHeight="18" defaultColWidth="12.5" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData>
-    <row r="1" spans="1:3" customHeight="1" ht="18">
-      <c r="A1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" customHeight="1" ht="18">
-      <c r="A2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" customHeight="1" ht="18">
-      <c r="A3" t="s">
-        <v>100</v>
-      </c>
-      <c r="C3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-  </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
+  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" r:id="rId1ps"/>
   <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
     <oddHeader/>
     <oddFooter/>
@@ -1443,10 +1632,58 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr customHeight="true" defaultRowHeight="18" defaultColWidth="12.5" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" spans="1:3" customHeight="1" ht="18">
+      <c r="A1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" customHeight="1" ht="18">
+      <c r="A2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" customHeight="1" ht="18">
+      <c r="A3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+  <tableParts count="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
   <dimension ref="A1:AC29"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="true" defaultRowHeight="18" defaultColWidth="3" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1493,13 +1730,13 @@
         <v>69</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>69</v>
@@ -1510,13 +1747,13 @@
         <v>69</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>69</v>
@@ -1540,16 +1777,16 @@
       </c>
     </row>
     <row r="7" spans="1:29" customHeight="1" ht="18">
-      <c r="B7" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
+      <c r="B7" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
     </row>
     <row r="10" spans="1:29" customHeight="1" ht="18">
       <c r="A10" s="5">
@@ -1626,66 +1863,66 @@
     <row r="18" spans="1:29" customHeight="1" ht="18">
       <c r="A18" s="16"/>
       <c r="B18" s="16" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
     </row>
     <row r="19" spans="1:29" customHeight="1" ht="18">
       <c r="A19" s="16"/>
       <c r="B19" s="16" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
     </row>
     <row r="20" spans="1:29" customHeight="1" ht="18">
       <c r="A20" s="16"/>
       <c r="B20" s="16" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="D20" s="16" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:29" customHeight="1" ht="18">
       <c r="A21" s="16"/>
       <c r="B21" s="16" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
     </row>
     <row r="22" spans="1:29" customHeight="1" ht="18">
       <c r="A22" s="16"/>
       <c r="B22" s="16" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="D22" s="16" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
     </row>
     <row r="29" spans="1:29" customHeight="1" ht="18" s="9" customFormat="1"/>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells>
     <mergeCell ref="E7:G7"/>
     <mergeCell ref="B7:D7"/>
@@ -1713,7 +1950,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1755,10 +1992,10 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
+  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" r:id="rId1ps"/>
   <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
     <oddHeader/>
     <oddFooter/>
@@ -1783,42 +2020,45 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="9" customWidth="true" style="16"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" t="s">
-        <v>10</v>
+      <c r="A1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
+      <c r="A2" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
+      <c r="A3" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
@@ -1839,7 +2079,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -1847,136 +2087,41 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2">
-        <v>2</v>
-      </c>
-      <c r="C2">
-        <v>3</v>
-      </c>
-      <c r="D2">
-        <v>4</v>
-      </c>
-      <c r="E2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3">
-        <v>6</v>
-      </c>
-      <c r="B3">
-        <v>7</v>
-      </c>
-      <c r="C3">
-        <v>8</v>
-      </c>
-      <c r="D3">
-        <v>9</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4">
-        <v>3</v>
-      </c>
-      <c r="D4">
-        <v>4</v>
-      </c>
-      <c r="E4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5">
-        <v>6</v>
-      </c>
-      <c r="B5">
-        <v>7</v>
-      </c>
-      <c r="C5">
-        <v>8</v>
-      </c>
-      <c r="D5">
-        <v>9</v>
-      </c>
-      <c r="E5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7">
-        <v>2</v>
-      </c>
-      <c r="D7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="B8">
-        <v>4</v>
-      </c>
-      <c r="C8">
-        <v>5</v>
-      </c>
-      <c r="D8">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="B9">
-        <v>7</v>
-      </c>
-      <c r="C9">
-        <v>8</v>
-      </c>
-      <c r="D9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" t="s">
-        <v>17</v>
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
@@ -1997,7 +2142,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -2005,81 +2150,136 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2">
         <v>2</v>
       </c>
-      <c r="I1" t="s">
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>4</v>
+      </c>
+      <c r="E2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>7</v>
+      </c>
+      <c r="C3">
+        <v>8</v>
+      </c>
+      <c r="D3">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>4</v>
+      </c>
+      <c r="E4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>7</v>
+      </c>
+      <c r="C5">
+        <v>8</v>
+      </c>
+      <c r="D5">
+        <v>9</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <v>5</v>
+      </c>
+      <c r="D8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="B9">
+        <v>7</v>
+      </c>
+      <c r="C9">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="B2">
-        <v>3</v>
-      </c>
-      <c r="C2">
-        <v>4</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="B10" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="B3">
-        <v>5</v>
-      </c>
-      <c r="C3">
-        <v>6</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="C10" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="B4">
-        <v>7</v>
-      </c>
-      <c r="C4">
-        <v>8</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="D10" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="B5">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" t="s">
-        <v>22</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="E10" t="s">
         <v>17</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
@@ -2100,7 +2300,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -2108,176 +2308,81 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1">
+        <v>2</v>
+      </c>
+      <c r="I1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>4</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="B3">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>6</v>
+      </c>
+      <c r="I3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="B4">
+        <v>7</v>
+      </c>
+      <c r="C4">
+        <v>8</v>
+      </c>
+      <c r="I4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="B5">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="s">
-        <v>38</v>
-      </c>
-      <c r="B9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" t="s">
-        <v>40</v>
-      </c>
-      <c r="B10" t="s">
-        <v>41</v>
-      </c>
-      <c r="C10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" t="s">
-        <v>42</v>
-      </c>
-      <c r="B11" t="s">
-        <v>43</v>
-      </c>
-      <c r="C11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" t="s">
-        <v>44</v>
-      </c>
-      <c r="B13" t="s">
-        <v>45</v>
-      </c>
-      <c r="C13" t="s">
-        <v>46</v>
-      </c>
-      <c r="D13" t="s">
-        <v>47</v>
-      </c>
-      <c r="E13" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="B14" t="s">
-        <v>49</v>
-      </c>
-      <c r="C14" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" t="s">
-        <v>25</v>
-      </c>
-      <c r="E14" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" t="s">
-        <v>15</v>
+      <c r="E5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
@@ -2298,117 +2403,184 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="true" defaultRowHeight="18" defaultColWidth="12.5" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="2" spans="1:8" customHeight="1" ht="18">
-      <c r="B2" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" customHeight="1" ht="18">
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-    </row>
-    <row r="4" spans="1:8" customHeight="1" ht="18">
-      <c r="B4" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" customHeight="1" ht="18">
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-    </row>
-    <row r="6" spans="1:8" customHeight="1" ht="18">
-      <c r="B6" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-    </row>
-    <row r="7" spans="1:8" customHeight="1" ht="18">
-      <c r="B7" s="15"/>
-      <c r="C7" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="F7" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="G7" s="14"/>
-      <c r="H7" s="15" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" customHeight="1" ht="18">
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="B14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
@@ -2429,7 +2601,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -2437,90 +2609,109 @@
   </sheetViews>
   <sheetFormatPr customHeight="true" defaultRowHeight="18" defaultColWidth="12.5" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:8" customHeight="1" ht="18">
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-    </row>
     <row r="2" spans="1:8" customHeight="1" ht="18">
       <c r="B2" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C2" s="2"/>
+        <v>51</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="3" spans="1:8" customHeight="1" ht="18">
-      <c r="B3" s="1"/>
+      <c r="B3" s="2"/>
       <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
     </row>
     <row r="4" spans="1:8" customHeight="1" ht="18">
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" customHeight="1" ht="18">
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" spans="1:8" customHeight="1" ht="18">
+      <c r="B6" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+    </row>
+    <row r="7" spans="1:8" customHeight="1" ht="18">
+      <c r="B7" s="15"/>
+      <c r="C7" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="C4" s="2"/>
-    </row>
-    <row r="5" spans="1:8" customHeight="1" ht="18">
-      <c r="B5" s="1" t="s">
+      <c r="E7" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="C5" s="2"/>
-    </row>
-    <row r="6" spans="1:8" customHeight="1" ht="18">
-      <c r="B6" s="1" t="s">
+      <c r="F7" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="C6" s="2"/>
-    </row>
-    <row r="7" spans="1:8" customHeight="1" ht="18">
-      <c r="B7" s="1"/>
-      <c r="C7" s="2"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="15" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="8" spans="1:8" customHeight="1" ht="18">
-      <c r="B8" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C8" s="2"/>
-    </row>
-    <row r="10" spans="1:8" customHeight="1" ht="18">
-      <c r="A10" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" customHeight="1" ht="18">
-      <c r="A11" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" customHeight="1" ht="18">
-      <c r="A12" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" customHeight="1" ht="18">
-      <c r="A13" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" customHeight="1" ht="18">
-      <c r="A14" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" customHeight="1" ht="18">
-      <c r="A15" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" customHeight="1" ht="18">
-      <c r="A16" s="3" t="s">
-        <v>64</v>
-      </c>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
@@ -2541,7 +2732,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -2549,52 +2740,90 @@
   </sheetViews>
   <sheetFormatPr customHeight="true" defaultRowHeight="18" defaultColWidth="12.5" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:4" customHeight="1" ht="18">
-      <c r="B1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" customHeight="1" ht="18">
-      <c r="B2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C2" s="4" t="s">
+    <row r="1" spans="1:8" customHeight="1" ht="18">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+    </row>
+    <row r="2" spans="1:8" customHeight="1" ht="18">
+      <c r="B2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="2"/>
+    </row>
+    <row r="3" spans="1:8" customHeight="1" ht="18">
+      <c r="B3" s="1"/>
+      <c r="C3" s="2"/>
+    </row>
+    <row r="4" spans="1:8" customHeight="1" ht="18">
+      <c r="B4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="2"/>
+    </row>
+    <row r="5" spans="1:8" customHeight="1" ht="18">
+      <c r="B5" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="2"/>
+    </row>
+    <row r="6" spans="1:8" customHeight="1" ht="18">
+      <c r="B6" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" s="2"/>
+    </row>
+    <row r="7" spans="1:8" customHeight="1" ht="18">
+      <c r="B7" s="1"/>
+      <c r="C7" s="2"/>
+    </row>
+    <row r="8" spans="1:8" customHeight="1" ht="18">
+      <c r="B8" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" s="2"/>
+    </row>
+    <row r="10" spans="1:8" customHeight="1" ht="18">
+      <c r="A10" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" customHeight="1" ht="18">
+      <c r="A11" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" customHeight="1" ht="18">
+      <c r="A12" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" customHeight="1" ht="18">
+      <c r="A13" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" customHeight="1" ht="18">
-      <c r="B3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" customHeight="1" ht="18">
-      <c r="B4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C4" t="s">
-        <v>76</v>
-      </c>
-      <c r="D4" t="s">
-        <v>77</v>
+    </row>
+    <row r="14" spans="1:8" customHeight="1" ht="18">
+      <c r="A14" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" customHeight="1" ht="18">
+      <c r="A15" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" customHeight="1" ht="18">
+      <c r="A16" s="3" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>

--- a/tests/test.xlsx
+++ b/tests/test.xlsx
@@ -11,17 +11,18 @@
     <sheet name="sheet1" sheetId="2" r:id="rId5"/>
     <sheet name="sheet2{$title}" sheetId="3" r:id="rId6"/>
     <sheet name="a{strtoupper($st)}z" sheetId="4" r:id="rId7"/>
-    <sheet name="rowif" sheetId="5" r:id="rId8"/>
-    <sheet name="colif" sheetId="6" r:id="rId9"/>
-    <sheet name="ifmisc" sheetId="7" r:id="rId10"/>
-    <sheet name="roweach" sheetId="8" r:id="rId11"/>
-    <sheet name="coleach" sheetId="9" r:id="rId12"/>
-    <sheet name="rowshift" sheetId="10" r:id="rId13"/>
-    <sheet name="colshift" sheetId="11" r:id="rId14"/>
-    <sheet name="merge" sheetId="12" r:id="rId15"/>
-    <sheet name="effector" sheetId="13" r:id="rId16"/>
-    <sheet name="misc" sheetId="14" r:id="rId17"/>
-    <sheet name="util" sheetId="15" r:id="rId18"/>
+    <sheet name="rowcol" sheetId="5" r:id="rId8"/>
+    <sheet name="rowif" sheetId="6" r:id="rId9"/>
+    <sheet name="colif" sheetId="7" r:id="rId10"/>
+    <sheet name="ifmisc" sheetId="8" r:id="rId11"/>
+    <sheet name="roweach" sheetId="9" r:id="rId12"/>
+    <sheet name="coleach" sheetId="10" r:id="rId13"/>
+    <sheet name="rowshift" sheetId="11" r:id="rId14"/>
+    <sheet name="colshift" sheetId="12" r:id="rId15"/>
+    <sheet name="merge" sheetId="13" r:id="rId16"/>
+    <sheet name="effector" sheetId="14" r:id="rId17"/>
+    <sheet name="misc" sheetId="15" r:id="rId18"/>
+    <sheet name="util" sheetId="16" r:id="rId19"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="136">
   <si>
     <t>{$A1}</t>
   </si>
@@ -62,6 +63,49 @@
   </si>
   <si>
     <t>{$value}</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">{template A1:C4</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="ＭＳ ゴシック"/>
+        <b val="false"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FF000000"/>
+        <sz val="11"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">}</t>
+    </r>
+  </si>
+  <si>
+    <t>{rowcol $csv1:false}</t>
+  </si>
+  <si>
+    <t>{rowcol $csv2:true}</t>
+  </si>
+  <si>
+    <t>a{rowcol $csv3}z</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">f</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="ＭＳ ゴシック"/>
+        <b val="false"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FF000000"/>
+        <sz val="11"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">ixed</t>
+    </r>
   </si>
   <si>
     <t>{template A1:E99}</t>
@@ -725,7 +769,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="4">
     <font>
       <b val="0"/>
       <i val="0"/>
@@ -733,6 +777,33 @@
       <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="ＭＳ ゴシック"/>
+    </font>
+    <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ ゴシック"/>
+    </font>
+    <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="ＭＳ ゴシック"/>
+    </font>
+    <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
       <name val="ＭＳ ゴシック"/>
     </font>
   </fonts>
@@ -781,13 +852,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
+        <fgColor rgb="FF00B0F0"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
+        <fgColor rgb="FF00B050"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
@@ -804,7 +875,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="29">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -863,12 +934,33 @@
       <alignment vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="5" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
+      <alignment vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="8" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
+      <alignment vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="7" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
+      <alignment vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="9" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="8" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="9" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
@@ -1173,7 +1265,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="M11" sqref="M11"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1237,7 +1329,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -1245,48 +1337,86 @@
   </sheetViews>
   <sheetFormatPr customHeight="true" defaultRowHeight="18" defaultColWidth="12.5" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:4" customHeight="1" ht="18">
-      <c r="B1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C1" s="4" t="s">
+    <row r="1" spans="1:8" customHeight="1" ht="18">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+    </row>
+    <row r="2" spans="1:8" customHeight="1" ht="18">
+      <c r="B2" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D1" t="s">
+      <c r="C2" s="2"/>
+    </row>
+    <row r="3" spans="1:8" customHeight="1" ht="18">
+      <c r="B3" s="1"/>
+      <c r="C3" s="2"/>
+    </row>
+    <row r="4" spans="1:8" customHeight="1" ht="18">
+      <c r="B4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="2"/>
+    </row>
+    <row r="5" spans="1:8" customHeight="1" ht="18">
+      <c r="B5" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="2"/>
+    </row>
+    <row r="6" spans="1:8" customHeight="1" ht="18">
+      <c r="B6" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="2"/>
+    </row>
+    <row r="7" spans="1:8" customHeight="1" ht="18">
+      <c r="B7" s="1"/>
+      <c r="C7" s="2"/>
+    </row>
+    <row r="8" spans="1:8" customHeight="1" ht="18">
+      <c r="B8" s="1" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" customHeight="1" ht="18">
-      <c r="B2" t="s">
+      <c r="C8" s="2"/>
+    </row>
+    <row r="10" spans="1:8" customHeight="1" ht="18">
+      <c r="A10" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="D2" t="s">
+    </row>
+    <row r="11" spans="1:8" customHeight="1" ht="18">
+      <c r="A11" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" customHeight="1" ht="18">
+      <c r="A12" s="3" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="1:4" customHeight="1" ht="18">
-      <c r="B3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" customHeight="1" ht="18">
-      <c r="B4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C4" t="s">
-        <v>76</v>
-      </c>
-      <c r="D4" t="s">
-        <v>77</v>
+    <row r="13" spans="1:8" customHeight="1" ht="18">
+      <c r="A13" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" customHeight="1" ht="18">
+      <c r="A14" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" customHeight="1" ht="18">
+      <c r="A15" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" customHeight="1" ht="18">
+      <c r="A16" s="3" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -1311,7 +1441,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -1319,46 +1449,48 @@
   </sheetViews>
   <sheetFormatPr customHeight="true" defaultRowHeight="18" defaultColWidth="12.5" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:5" customHeight="1" ht="18">
+    <row r="1" spans="1:4" customHeight="1" ht="18">
       <c r="B1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C1" t="s">
-        <v>70</v>
+        <v>72</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>73</v>
       </c>
       <c r="D1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" customHeight="1" ht="18">
+      <c r="B2" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" customHeight="1" ht="18">
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" customHeight="1" ht="18">
+      <c r="B3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="D2" s="4" t="s">
+      <c r="D3" t="s">
         <v>79</v>
       </c>
-      <c r="E2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" customHeight="1" ht="18">
-      <c r="B3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D3" t="s">
-        <v>74</v>
-      </c>
-      <c r="E3" t="s">
-        <v>77</v>
+    </row>
+    <row r="4" spans="1:4" customHeight="1" ht="18">
+      <c r="B4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D4" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -1383,6 +1515,78 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr customHeight="true" defaultRowHeight="18" defaultColWidth="12.5" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" spans="1:5" customHeight="1" ht="18">
+      <c r="B1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" customHeight="1" ht="18">
+      <c r="B2" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" customHeight="1" ht="18">
+      <c r="B3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+  <tableParts count="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
@@ -1393,93 +1597,93 @@
   <sheetData>
     <row r="2" spans="1:5" customHeight="1" ht="18">
       <c r="A2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
+        <v>85</v>
+      </c>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
     </row>
     <row r="3" spans="1:5" customHeight="1" ht="18">
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
       <c r="D3" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:5" customHeight="1" ht="18">
       <c r="B5" t="s">
-        <v>81</v>
-      </c>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
+        <v>86</v>
+      </c>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
       <c r="E5" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:5" customHeight="1" ht="18">
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
     </row>
     <row r="7" spans="1:5" customHeight="1" ht="18">
       <c r="A7" t="s">
-        <v>82</v>
-      </c>
-      <c r="B7" s="19"/>
+        <v>87</v>
+      </c>
+      <c r="B7" s="26"/>
       <c r="C7" s="10"/>
     </row>
     <row r="8" spans="1:5" customHeight="1" ht="18">
-      <c r="A8" s="19"/>
-      <c r="B8" s="19"/>
+      <c r="A8" s="26"/>
+      <c r="B8" s="26"/>
       <c r="C8" s="10"/>
     </row>
     <row r="9" spans="1:5" customHeight="1" ht="18">
-      <c r="A9" s="19"/>
-      <c r="B9" s="19"/>
+      <c r="A9" s="26"/>
+      <c r="B9" s="26"/>
       <c r="C9" s="10"/>
     </row>
     <row r="10" spans="1:5" customHeight="1" ht="18">
       <c r="A10" t="s">
-        <v>64</v>
-      </c>
-      <c r="B10" s="19"/>
+        <v>69</v>
+      </c>
+      <c r="B10" s="26"/>
       <c r="C10" s="10"/>
     </row>
     <row r="12" spans="1:5" customHeight="1" ht="18">
       <c r="B12" t="s">
-        <v>83</v>
-      </c>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
+        <v>88</v>
+      </c>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
       <c r="E12" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:5" customHeight="1" ht="18">
-      <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
     </row>
     <row r="16" spans="1:5" customHeight="1" ht="18">
       <c r="B16" t="s">
-        <v>84</v>
-      </c>
-      <c r="C16" s="19"/>
+        <v>89</v>
+      </c>
+      <c r="C16" s="26"/>
     </row>
     <row r="17" spans="1:5" customHeight="1" ht="18">
-      <c r="B17" s="19"/>
-      <c r="C17" s="19"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="26"/>
     </row>
     <row r="18" spans="1:5" customHeight="1" ht="18">
-      <c r="B18" s="19"/>
-      <c r="C18" s="19"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="26"/>
     </row>
     <row r="19" spans="1:5" customHeight="1" ht="18">
       <c r="B19" t="s">
-        <v>79</v>
-      </c>
-      <c r="C19" s="19"/>
+        <v>84</v>
+      </c>
+      <c r="C19" s="26"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
@@ -1509,7 +1713,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1527,87 +1731,87 @@
   <sheetData>
     <row r="1" spans="1:5" customHeight="1" ht="18">
       <c r="A1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:5" customHeight="1" ht="18">
       <c r="A2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:5" customHeight="1" ht="18">
       <c r="A3" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:5" customHeight="1" ht="18">
       <c r="A4" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:5" customHeight="1" ht="18">
       <c r="A5" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B5" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="C5" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="D5" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E5" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:5" customHeight="1" ht="18" s="17" customFormat="1">
       <c r="A6" s="17" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:5" customHeight="1" ht="18" s="17" customFormat="1">
       <c r="A7" s="18" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:5" customHeight="1" ht="18" s="17" customFormat="1">
       <c r="A8" s="18" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:5" customHeight="1" ht="18" s="17" customFormat="1">
       <c r="A9" s="18" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10" spans="1:5" customHeight="1" ht="18" s="17" customFormat="1">
       <c r="A10" s="18" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:5" customHeight="1" ht="18" s="17" customFormat="1">
       <c r="A11" s="18" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
     </row>
     <row r="12" spans="1:5" customHeight="1" ht="18">
       <c r="A12" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
     </row>
     <row r="13" spans="1:5" customHeight="1" ht="18">
       <c r="A13" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
     </row>
     <row r="14" spans="1:5" customHeight="1" ht="18">
       <c r="A14" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -1627,7 +1831,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1642,20 +1846,20 @@
   <sheetData>
     <row r="1" spans="1:3" customHeight="1" ht="18">
       <c r="A1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:3" customHeight="1" ht="18">
       <c r="A2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:3" customHeight="1" ht="18">
       <c r="A3" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="C3" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -1675,7 +1879,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1693,100 +1897,100 @@
   <sheetData>
     <row r="1" spans="1:29" customHeight="1" ht="18">
       <c r="A1" s="5" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:29" customHeight="1" ht="18">
       <c r="A2" s="5" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:29" customHeight="1" ht="18">
       <c r="A3" s="5" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:29" customHeight="1" ht="18">
       <c r="A4" s="5" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:29" customHeight="1" ht="18">
       <c r="A5" s="5" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:29" customHeight="1" ht="18">
-      <c r="B7" s="21" t="s">
-        <v>114</v>
-      </c>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
+      <c r="B7" s="28" t="s">
+        <v>119</v>
+      </c>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
     </row>
     <row r="10" spans="1:29" customHeight="1" ht="18">
       <c r="A10" s="5">
@@ -1841,83 +2045,83 @@
     </row>
     <row r="14" spans="1:29" customHeight="1" ht="18">
       <c r="A14" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B14" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C14" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15" spans="1:29" customHeight="1" ht="18">
       <c r="A15" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:29" customHeight="1" ht="18">
       <c r="A16" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18" spans="1:29" customHeight="1" ht="18">
       <c r="A18" s="16"/>
       <c r="B18" s="16" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
     </row>
     <row r="19" spans="1:29" customHeight="1" ht="18">
       <c r="A19" s="16"/>
       <c r="B19" s="16" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
     </row>
     <row r="20" spans="1:29" customHeight="1" ht="18">
       <c r="A20" s="16"/>
       <c r="B20" s="16" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="D20" s="16" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
     </row>
     <row r="21" spans="1:29" customHeight="1" ht="18">
       <c r="A21" s="16"/>
       <c r="B21" s="16" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
     </row>
     <row r="22" spans="1:29" customHeight="1" ht="18">
       <c r="A22" s="16"/>
       <c r="B22" s="16" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="D22" s="16" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
     </row>
     <row r="29" spans="1:29" customHeight="1" ht="18" s="9" customFormat="1"/>
@@ -2142,140 +2346,48 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="9" customWidth="true" style="18"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="19" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
+    <row r="2" spans="1:4">
+      <c r="A2" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B2">
-        <v>2</v>
-      </c>
-      <c r="C2">
-        <v>3</v>
-      </c>
-      <c r="D2">
-        <v>4</v>
-      </c>
-      <c r="E2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3">
-        <v>6</v>
-      </c>
-      <c r="B3">
-        <v>7</v>
-      </c>
-      <c r="C3">
-        <v>8</v>
-      </c>
-      <c r="D3">
-        <v>9</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="B2" s="22"/>
+      <c r="C2" s="21"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="19"/>
+      <c r="B3" s="23" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
+      <c r="C3" s="24"/>
+      <c r="D3" s="25"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="19"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4">
-        <v>3</v>
-      </c>
-      <c r="D4">
-        <v>4</v>
-      </c>
-      <c r="E4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5">
-        <v>6</v>
-      </c>
-      <c r="B5">
-        <v>7</v>
-      </c>
-      <c r="C5">
-        <v>8</v>
-      </c>
-      <c r="D5">
-        <v>9</v>
-      </c>
-      <c r="E5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
+      <c r="D4" s="25"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="19" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7">
-        <v>2</v>
-      </c>
-      <c r="D7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="B8">
-        <v>4</v>
-      </c>
-      <c r="C8">
-        <v>5</v>
-      </c>
-      <c r="D8">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="B9">
-        <v>7</v>
-      </c>
-      <c r="C9">
-        <v>8</v>
-      </c>
-      <c r="D9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -2300,7 +2412,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -2308,77 +2420,132 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>4</v>
+      </c>
+      <c r="E2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>7</v>
+      </c>
+      <c r="C3">
+        <v>8</v>
+      </c>
+      <c r="D3">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
         <v>18</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
         <v>19</v>
       </c>
-      <c r="C1">
+      <c r="B4">
         <v>2</v>
       </c>
-      <c r="I1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="B2">
+      <c r="C4">
         <v>3</v>
       </c>
-      <c r="C2">
+      <c r="D4">
         <v>4</v>
       </c>
-      <c r="I2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="B3">
+      <c r="E4">
         <v>5</v>
       </c>
-      <c r="C3">
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
         <v>6</v>
       </c>
-      <c r="I3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="B4">
+      <c r="B5">
         <v>7</v>
       </c>
-      <c r="C4">
+      <c r="C5">
         <v>8</v>
       </c>
-      <c r="I4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="B5">
+      <c r="D5">
         <v>9</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
         <v>20</v>
       </c>
-      <c r="D5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" t="s">
+    </row>
+    <row r="7" spans="1:5">
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <v>5</v>
+      </c>
+      <c r="D8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="B9">
+        <v>7</v>
+      </c>
+      <c r="C9">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
         <v>21</v>
       </c>
-      <c r="F5" t="s">
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
         <v>22</v>
       </c>
-      <c r="G5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" t="s">
+      <c r="B10" t="s">
         <v>22</v>
       </c>
-      <c r="I5" t="s">
-        <v>17</v>
+      <c r="C10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -2403,7 +2570,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -2411,172 +2578,77 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
         <v>23</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B1" t="s">
         <v>24</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C1">
+        <v>2</v>
+      </c>
+      <c r="I1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>4</v>
+      </c>
+      <c r="I2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="B3">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>6</v>
+      </c>
+      <c r="I3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="B4">
+        <v>7</v>
+      </c>
+      <c r="C4">
+        <v>8</v>
+      </c>
+      <c r="I4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="B5">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
         <v>25</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" t="s">
         <v>26</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F5" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="G5" t="s">
         <v>24</v>
       </c>
-      <c r="C3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="s">
-        <v>38</v>
-      </c>
-      <c r="B9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" t="s">
-        <v>40</v>
-      </c>
-      <c r="B10" t="s">
-        <v>41</v>
-      </c>
-      <c r="C10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" t="s">
-        <v>42</v>
-      </c>
-      <c r="B11" t="s">
-        <v>43</v>
-      </c>
-      <c r="C11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" t="s">
-        <v>44</v>
-      </c>
-      <c r="B13" t="s">
-        <v>45</v>
-      </c>
-      <c r="C13" t="s">
-        <v>46</v>
-      </c>
-      <c r="D13" t="s">
-        <v>47</v>
-      </c>
-      <c r="E13" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="B14" t="s">
-        <v>49</v>
-      </c>
-      <c r="C14" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" t="s">
-        <v>25</v>
-      </c>
-      <c r="E14" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" t="s">
-        <v>15</v>
+      <c r="H5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -2601,114 +2673,181 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="true" defaultRowHeight="18" defaultColWidth="12.5" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="2" spans="1:8" customHeight="1" ht="18">
-      <c r="B2" s="1" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" t="s">
         <v>51</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1" t="s">
+      <c r="D13" t="s">
         <v>52</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E13" t="s">
         <v>53</v>
       </c>
-      <c r="F2" s="1" t="s">
+    </row>
+    <row r="14" spans="1:5">
+      <c r="B14" t="s">
         <v>54</v>
       </c>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1" t="s">
+      <c r="C14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:8" customHeight="1" ht="18">
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-    </row>
-    <row r="4" spans="1:8" customHeight="1" ht="18">
-      <c r="B4" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" customHeight="1" ht="18">
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-    </row>
-    <row r="6" spans="1:8" customHeight="1" ht="18">
-      <c r="B6" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-    </row>
-    <row r="7" spans="1:8" customHeight="1" ht="18">
-      <c r="B7" s="15"/>
-      <c r="C7" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="F7" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="G7" s="14"/>
-      <c r="H7" s="15" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" customHeight="1" ht="18">
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
@@ -2732,95 +2871,114 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="true" defaultRowHeight="18" defaultColWidth="12.5" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:8" customHeight="1" ht="18">
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-    </row>
     <row r="2" spans="1:8" customHeight="1" ht="18">
       <c r="B2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" customHeight="1" ht="18">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" spans="1:8" customHeight="1" ht="18">
+      <c r="B4" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C2" s="2"/>
-    </row>
-    <row r="3" spans="1:8" customHeight="1" ht="18">
-      <c r="B3" s="1"/>
-      <c r="C3" s="2"/>
-    </row>
-    <row r="4" spans="1:8" customHeight="1" ht="18">
-      <c r="B4" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C4" s="2"/>
+      <c r="E4" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="5" spans="1:8" customHeight="1" ht="18">
-      <c r="B5" s="1" t="s">
-        <v>53</v>
-      </c>
+      <c r="B5" s="2"/>
       <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
     </row>
     <row r="6" spans="1:8" customHeight="1" ht="18">
-      <c r="B6" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C6" s="2"/>
+      <c r="B6" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
     </row>
     <row r="7" spans="1:8" customHeight="1" ht="18">
-      <c r="B7" s="1"/>
-      <c r="C7" s="2"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="G7" s="14"/>
+      <c r="H7" s="15" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="8" spans="1:8" customHeight="1" ht="18">
-      <c r="B8" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C8" s="2"/>
-    </row>
-    <row r="10" spans="1:8" customHeight="1" ht="18">
-      <c r="A10" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" customHeight="1" ht="18">
-      <c r="A11" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" customHeight="1" ht="18">
-      <c r="A12" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" customHeight="1" ht="18">
-      <c r="A13" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" customHeight="1" ht="18">
-      <c r="A14" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" customHeight="1" ht="18">
-      <c r="A15" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" customHeight="1" ht="18">
-      <c r="A16" s="3" t="s">
-        <v>64</v>
-      </c>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>

--- a/tests/test.xlsx
+++ b/tests/test.xlsx
@@ -11,18 +11,19 @@
     <sheet name="sheet1" sheetId="2" r:id="rId5"/>
     <sheet name="sheet2{$title}" sheetId="3" r:id="rId6"/>
     <sheet name="a{strtoupper($st)}z" sheetId="4" r:id="rId7"/>
-    <sheet name="rowcol" sheetId="5" r:id="rId8"/>
-    <sheet name="rowif" sheetId="6" r:id="rId9"/>
-    <sheet name="colif" sheetId="7" r:id="rId10"/>
-    <sheet name="ifmisc" sheetId="8" r:id="rId11"/>
-    <sheet name="roweach" sheetId="9" r:id="rId12"/>
-    <sheet name="coleach" sheetId="10" r:id="rId13"/>
-    <sheet name="rowshift" sheetId="11" r:id="rId14"/>
-    <sheet name="colshift" sheetId="12" r:id="rId15"/>
-    <sheet name="merge" sheetId="13" r:id="rId16"/>
-    <sheet name="effector" sheetId="14" r:id="rId17"/>
-    <sheet name="misc" sheetId="15" r:id="rId18"/>
-    <sheet name="util" sheetId="16" r:id="rId19"/>
+    <sheet name="row" sheetId="5" r:id="rId8"/>
+    <sheet name="rowcol" sheetId="6" r:id="rId9"/>
+    <sheet name="rowif" sheetId="7" r:id="rId10"/>
+    <sheet name="colif" sheetId="8" r:id="rId11"/>
+    <sheet name="ifmisc" sheetId="9" r:id="rId12"/>
+    <sheet name="roweach" sheetId="10" r:id="rId13"/>
+    <sheet name="coleach" sheetId="11" r:id="rId14"/>
+    <sheet name="rowshift" sheetId="12" r:id="rId15"/>
+    <sheet name="colshift" sheetId="13" r:id="rId16"/>
+    <sheet name="merge" sheetId="14" r:id="rId17"/>
+    <sheet name="effector" sheetId="15" r:id="rId18"/>
+    <sheet name="misc" sheetId="16" r:id="rId19"/>
+    <sheet name="util" sheetId="17" r:id="rId20"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="139">
   <si>
     <t>{$A1}</t>
   </si>
@@ -82,13 +83,39 @@
     </r>
   </si>
   <si>
-    <t>{rowcol $csv1:false}</t>
-  </si>
-  <si>
-    <t>{rowcol $csv2:true}</t>
-  </si>
-  <si>
-    <t>a{rowcol $csv3}z</t>
+    <r>
+      <t xml:space="preserve">{row $</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="ＭＳ ゴシック"/>
+        <b val="false"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FF000000"/>
+        <sz val="11"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">row</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="ＭＳ ゴシック"/>
+        <b val="false"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FF000000"/>
+        <sz val="11"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">1}</t>
+    </r>
+  </si>
+  <si>
+    <t>{row $row2}</t>
+  </si>
+  <si>
+    <t>a{rowcol $row3}z</t>
   </si>
   <si>
     <r>
@@ -106,6 +133,15 @@
       </rPr>
       <t xml:space="preserve">ixed</t>
     </r>
+  </si>
+  <si>
+    <t>{rowcol $csv1:false}</t>
+  </si>
+  <si>
+    <t>{rowcol $csv2:true}</t>
+  </si>
+  <si>
+    <t>a{rowcol $csv3}z</t>
   </si>
   <si>
     <t>{template A1:E99}</t>
@@ -863,7 +899,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -871,11 +907,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -952,6 +1003,12 @@
       <alignment vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="5" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
@@ -1329,95 +1386,114 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="true" defaultRowHeight="18" defaultColWidth="12.5" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:8" customHeight="1" ht="18">
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-    </row>
     <row r="2" spans="1:8" customHeight="1" ht="18">
       <c r="B2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" customHeight="1" ht="18">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" spans="1:8" customHeight="1" ht="18">
+      <c r="B4" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" customHeight="1" ht="18">
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" spans="1:8" customHeight="1" ht="18">
+      <c r="B6" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="C2" s="2"/>
-    </row>
-    <row r="3" spans="1:8" customHeight="1" ht="18">
-      <c r="B3" s="1"/>
-      <c r="C3" s="2"/>
-    </row>
-    <row r="4" spans="1:8" customHeight="1" ht="18">
-      <c r="B4" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C4" s="2"/>
-    </row>
-    <row r="5" spans="1:8" customHeight="1" ht="18">
-      <c r="B5" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C5" s="2"/>
-    </row>
-    <row r="6" spans="1:8" customHeight="1" ht="18">
-      <c r="B6" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C6" s="2"/>
+      <c r="C6" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
     </row>
     <row r="7" spans="1:8" customHeight="1" ht="18">
-      <c r="B7" s="1"/>
-      <c r="C7" s="2"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="G7" s="14"/>
+      <c r="H7" s="15" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="8" spans="1:8" customHeight="1" ht="18">
-      <c r="B8" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C8" s="2"/>
-    </row>
-    <row r="10" spans="1:8" customHeight="1" ht="18">
-      <c r="A10" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" customHeight="1" ht="18">
-      <c r="A11" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" customHeight="1" ht="18">
-      <c r="A12" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" customHeight="1" ht="18">
-      <c r="A13" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" customHeight="1" ht="18">
-      <c r="A14" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" customHeight="1" ht="18">
-      <c r="A15" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" customHeight="1" ht="18">
-      <c r="A16" s="3" t="s">
-        <v>69</v>
-      </c>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
@@ -1441,7 +1517,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -1449,48 +1525,86 @@
   </sheetViews>
   <sheetFormatPr customHeight="true" defaultRowHeight="18" defaultColWidth="12.5" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:4" customHeight="1" ht="18">
-      <c r="B1" t="s">
+    <row r="1" spans="1:8" customHeight="1" ht="18">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+    </row>
+    <row r="2" spans="1:8" customHeight="1" ht="18">
+      <c r="B2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" s="2"/>
+    </row>
+    <row r="3" spans="1:8" customHeight="1" ht="18">
+      <c r="B3" s="1"/>
+      <c r="C3" s="2"/>
+    </row>
+    <row r="4" spans="1:8" customHeight="1" ht="18">
+      <c r="B4" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" s="2"/>
+    </row>
+    <row r="5" spans="1:8" customHeight="1" ht="18">
+      <c r="B5" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" s="2"/>
+    </row>
+    <row r="6" spans="1:8" customHeight="1" ht="18">
+      <c r="B6" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" s="2"/>
+    </row>
+    <row r="7" spans="1:8" customHeight="1" ht="18">
+      <c r="B7" s="1"/>
+      <c r="C7" s="2"/>
+    </row>
+    <row r="8" spans="1:8" customHeight="1" ht="18">
+      <c r="B8" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C8" s="2"/>
+    </row>
+    <row r="10" spans="1:8" customHeight="1" ht="18">
+      <c r="A10" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="11" spans="1:8" customHeight="1" ht="18">
+      <c r="A11" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" customHeight="1" ht="18">
+      <c r="A12" s="3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:4" customHeight="1" ht="18">
-      <c r="B2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" customHeight="1" ht="18">
-      <c r="B3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="D3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" customHeight="1" ht="18">
-      <c r="B4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D4" t="s">
-        <v>82</v>
+    <row r="13" spans="1:8" customHeight="1" ht="18">
+      <c r="A13" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" customHeight="1" ht="18">
+      <c r="A14" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" customHeight="1" ht="18">
+      <c r="A15" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" customHeight="1" ht="18">
+      <c r="A16" s="3" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1515,7 +1629,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -1523,46 +1637,48 @@
   </sheetViews>
   <sheetFormatPr customHeight="true" defaultRowHeight="18" defaultColWidth="12.5" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:5" customHeight="1" ht="18">
+    <row r="1" spans="1:4" customHeight="1" ht="18">
       <c r="B1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C1" t="s">
         <v>75</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>76</v>
       </c>
       <c r="D1" t="s">
         <v>77</v>
       </c>
-      <c r="E1" t="s">
+    </row>
+    <row r="2" spans="1:4" customHeight="1" ht="18">
+      <c r="B2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" customHeight="1" ht="18">
+      <c r="B3" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" customHeight="1" ht="18">
-      <c r="B2" s="4" t="s">
+      <c r="C3" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" customHeight="1" ht="18">
+      <c r="B4" t="s">
         <v>83</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D2" s="4" t="s">
+      <c r="C4" t="s">
         <v>84</v>
       </c>
-      <c r="E2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" customHeight="1" ht="18">
-      <c r="B3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D3" t="s">
-        <v>79</v>
-      </c>
-      <c r="E3" t="s">
-        <v>82</v>
+      <c r="D4" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -1587,6 +1703,78 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr customHeight="true" defaultRowHeight="18" defaultColWidth="12.5" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" spans="1:5" customHeight="1" ht="18">
+      <c r="B1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" customHeight="1" ht="18">
+      <c r="B2" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" customHeight="1" ht="18">
+      <c r="B3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+  <tableParts count="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
@@ -1597,93 +1785,93 @@
   <sheetData>
     <row r="2" spans="1:5" customHeight="1" ht="18">
       <c r="A2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
+        <v>88</v>
+      </c>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
     </row>
     <row r="3" spans="1:5" customHeight="1" ht="18">
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
       <c r="D3" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:5" customHeight="1" ht="18">
       <c r="B5" t="s">
-        <v>86</v>
-      </c>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
+        <v>89</v>
+      </c>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
       <c r="E5" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:5" customHeight="1" ht="18">
-      <c r="B6" s="26"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
     </row>
     <row r="7" spans="1:5" customHeight="1" ht="18">
       <c r="A7" t="s">
-        <v>87</v>
-      </c>
-      <c r="B7" s="26"/>
+        <v>90</v>
+      </c>
+      <c r="B7" s="28"/>
       <c r="C7" s="10"/>
     </row>
     <row r="8" spans="1:5" customHeight="1" ht="18">
-      <c r="A8" s="26"/>
-      <c r="B8" s="26"/>
+      <c r="A8" s="28"/>
+      <c r="B8" s="28"/>
       <c r="C8" s="10"/>
     </row>
     <row r="9" spans="1:5" customHeight="1" ht="18">
-      <c r="A9" s="26"/>
-      <c r="B9" s="26"/>
+      <c r="A9" s="28"/>
+      <c r="B9" s="28"/>
       <c r="C9" s="10"/>
     </row>
     <row r="10" spans="1:5" customHeight="1" ht="18">
       <c r="A10" t="s">
-        <v>69</v>
-      </c>
-      <c r="B10" s="26"/>
+        <v>72</v>
+      </c>
+      <c r="B10" s="28"/>
       <c r="C10" s="10"/>
     </row>
     <row r="12" spans="1:5" customHeight="1" ht="18">
       <c r="B12" t="s">
-        <v>88</v>
-      </c>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
+        <v>91</v>
+      </c>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
       <c r="E12" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:5" customHeight="1" ht="18">
-      <c r="B13" s="26"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
     </row>
     <row r="16" spans="1:5" customHeight="1" ht="18">
       <c r="B16" t="s">
-        <v>89</v>
-      </c>
-      <c r="C16" s="26"/>
+        <v>92</v>
+      </c>
+      <c r="C16" s="28"/>
     </row>
     <row r="17" spans="1:5" customHeight="1" ht="18">
-      <c r="B17" s="26"/>
-      <c r="C17" s="26"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="28"/>
     </row>
     <row r="18" spans="1:5" customHeight="1" ht="18">
-      <c r="B18" s="26"/>
-      <c r="C18" s="26"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="28"/>
     </row>
     <row r="19" spans="1:5" customHeight="1" ht="18">
       <c r="B19" t="s">
-        <v>84</v>
-      </c>
-      <c r="C19" s="26"/>
+        <v>87</v>
+      </c>
+      <c r="C19" s="28"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
@@ -1713,7 +1901,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1731,87 +1919,87 @@
   <sheetData>
     <row r="1" spans="1:5" customHeight="1" ht="18">
       <c r="A1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:5" customHeight="1" ht="18">
       <c r="A2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:5" customHeight="1" ht="18">
       <c r="A3" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:5" customHeight="1" ht="18">
       <c r="A4" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:5" customHeight="1" ht="18">
       <c r="A5" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B5" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C5" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D5" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E5" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:5" customHeight="1" ht="18" s="17" customFormat="1">
       <c r="A6" s="17" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:5" customHeight="1" ht="18" s="17" customFormat="1">
       <c r="A7" s="18" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:5" customHeight="1" ht="18" s="17" customFormat="1">
       <c r="A8" s="18" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:5" customHeight="1" ht="18" s="17" customFormat="1">
       <c r="A9" s="18" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:5" customHeight="1" ht="18" s="17" customFormat="1">
       <c r="A10" s="18" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:5" customHeight="1" ht="18" s="17" customFormat="1">
       <c r="A11" s="18" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12" spans="1:5" customHeight="1" ht="18">
       <c r="A12" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="13" spans="1:5" customHeight="1" ht="18">
       <c r="A13" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="14" spans="1:5" customHeight="1" ht="18">
       <c r="A14" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -1831,7 +2019,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1846,20 +2034,20 @@
   <sheetData>
     <row r="1" spans="1:3" customHeight="1" ht="18">
       <c r="A1" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:3" customHeight="1" ht="18">
       <c r="A2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:3" customHeight="1" ht="18">
       <c r="A3" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C3" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -1879,7 +2067,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1897,100 +2085,100 @@
   <sheetData>
     <row r="1" spans="1:29" customHeight="1" ht="18">
       <c r="A1" s="5" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:29" customHeight="1" ht="18">
       <c r="A2" s="5" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D2" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>77</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:29" customHeight="1" ht="18">
       <c r="A3" s="5" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:29" customHeight="1" ht="18">
       <c r="A4" s="5" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:29" customHeight="1" ht="18">
       <c r="A5" s="5" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:29" customHeight="1" ht="18">
-      <c r="B7" s="28" t="s">
-        <v>119</v>
-      </c>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="27" t="s">
-        <v>120</v>
-      </c>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
+      <c r="B7" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
     </row>
     <row r="10" spans="1:29" customHeight="1" ht="18">
       <c r="A10" s="5">
@@ -2045,83 +2233,83 @@
     </row>
     <row r="14" spans="1:29" customHeight="1" ht="18">
       <c r="A14" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B14" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C14" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:29" customHeight="1" ht="18">
       <c r="A15" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:29" customHeight="1" ht="18">
       <c r="A16" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:29" customHeight="1" ht="18">
       <c r="A18" s="16"/>
       <c r="B18" s="16" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="19" spans="1:29" customHeight="1" ht="18">
       <c r="A19" s="16"/>
       <c r="B19" s="16" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
     <row r="20" spans="1:29" customHeight="1" ht="18">
       <c r="A20" s="16"/>
       <c r="B20" s="16" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="D20" s="16" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="21" spans="1:29" customHeight="1" ht="18">
       <c r="A21" s="16"/>
       <c r="B21" s="16" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="22" spans="1:29" customHeight="1" ht="18">
       <c r="A22" s="16"/>
       <c r="B22" s="16" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="D22" s="16" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="29" spans="1:29" customHeight="1" ht="18" s="9" customFormat="1"/>
@@ -2349,12 +2537,13 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="9" customWidth="true" style="18"/>
+    <col min="1" max="1" width="9" customWidth="true" style="19"/>
+    <col min="2" max="2" width="9" customWidth="true" style="19"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -2363,14 +2552,13 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="21"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="19"/>
       <c r="B3" s="23" t="s">
         <v>13</v>
       </c>
@@ -2378,7 +2566,6 @@
       <c r="D3" s="25"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="19"/>
       <c r="B4" s="23"/>
       <c r="C4" s="24" t="s">
         <v>14</v>
@@ -2412,140 +2599,48 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="9" customWidth="true" style="18"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="20" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
+      <c r="B2" s="22"/>
+      <c r="C2" s="21"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="19"/>
+      <c r="B3" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="B2">
-        <v>2</v>
-      </c>
-      <c r="C2">
-        <v>3</v>
-      </c>
-      <c r="D2">
-        <v>4</v>
-      </c>
-      <c r="E2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3">
-        <v>6</v>
-      </c>
-      <c r="B3">
-        <v>7</v>
-      </c>
-      <c r="C3">
-        <v>8</v>
-      </c>
-      <c r="D3">
-        <v>9</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="C3" s="24"/>
+      <c r="D3" s="25"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="19"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="24" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4">
-        <v>3</v>
-      </c>
-      <c r="D4">
-        <v>4</v>
-      </c>
-      <c r="E4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5">
-        <v>6</v>
-      </c>
-      <c r="B5">
-        <v>7</v>
-      </c>
-      <c r="C5">
-        <v>8</v>
-      </c>
-      <c r="D5">
-        <v>9</v>
-      </c>
-      <c r="E5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="B7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7">
-        <v>2</v>
-      </c>
-      <c r="D7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="B8">
-        <v>4</v>
-      </c>
-      <c r="C8">
-        <v>5</v>
-      </c>
-      <c r="D8">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="B9">
-        <v>7</v>
-      </c>
-      <c r="C9">
-        <v>8</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" t="s">
-        <v>22</v>
+      <c r="D4" s="25"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="19" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -2570,7 +2665,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -2578,77 +2673,132 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>4</v>
+      </c>
+      <c r="E2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>7</v>
+      </c>
+      <c r="C3">
+        <v>8</v>
+      </c>
+      <c r="D3">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>4</v>
+      </c>
+      <c r="E4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>7</v>
+      </c>
+      <c r="C5">
+        <v>8</v>
+      </c>
+      <c r="D5">
+        <v>9</v>
+      </c>
+      <c r="E5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
         <v>23</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="7" spans="1:5">
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <v>5</v>
+      </c>
+      <c r="D8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="B9">
+        <v>7</v>
+      </c>
+      <c r="C9">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
         <v>24</v>
       </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="I1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="B2">
-        <v>3</v>
-      </c>
-      <c r="C2">
-        <v>4</v>
-      </c>
-      <c r="I2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="B3">
-        <v>5</v>
-      </c>
-      <c r="C3">
-        <v>6</v>
-      </c>
-      <c r="I3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="B4">
-        <v>7</v>
-      </c>
-      <c r="C4">
-        <v>8</v>
-      </c>
-      <c r="I4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="B5">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s">
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
         <v>25</v>
       </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" t="s">
-        <v>24</v>
-      </c>
-      <c r="H5" t="s">
-        <v>27</v>
-      </c>
-      <c r="I5" t="s">
-        <v>22</v>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -2673,7 +2823,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -2681,172 +2831,77 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1">
+        <v>2</v>
+      </c>
+      <c r="I1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>4</v>
+      </c>
+      <c r="I2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="B3">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>6</v>
+      </c>
+      <c r="I3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="B4">
+        <v>7</v>
+      </c>
+      <c r="C4">
+        <v>8</v>
+      </c>
+      <c r="I4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="B5">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
         <v>28</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" t="s">
         <v>29</v>
       </c>
-      <c r="C2" t="s">
+      <c r="F5" t="s">
         <v>30</v>
       </c>
-      <c r="D2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="G5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" t="s">
         <v>30</v>
       </c>
-      <c r="D3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" t="s">
-        <v>41</v>
-      </c>
-      <c r="B8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="s">
-        <v>43</v>
-      </c>
-      <c r="B9" t="s">
-        <v>44</v>
-      </c>
-      <c r="C9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" t="s">
-        <v>45</v>
-      </c>
-      <c r="B10" t="s">
-        <v>46</v>
-      </c>
-      <c r="C10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" t="s">
-        <v>47</v>
-      </c>
-      <c r="B11" t="s">
-        <v>48</v>
-      </c>
-      <c r="C11" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" t="s">
-        <v>49</v>
-      </c>
-      <c r="B13" t="s">
-        <v>50</v>
-      </c>
-      <c r="C13" t="s">
-        <v>51</v>
-      </c>
-      <c r="D13" t="s">
-        <v>52</v>
-      </c>
-      <c r="E13" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="B14" t="s">
-        <v>54</v>
-      </c>
-      <c r="C14" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E14" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" t="s">
-        <v>20</v>
+      <c r="I5" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -2871,114 +2926,181 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="true" defaultRowHeight="18" defaultColWidth="12.5" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="2" spans="1:8" customHeight="1" ht="18">
-      <c r="B2" s="1" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" t="s">
+        <v>55</v>
+      </c>
+      <c r="E13" t="s">
         <v>56</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1" t="s">
+    </row>
+    <row r="14" spans="1:5">
+      <c r="B14" t="s">
         <v>57</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="C14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" t="s">
         <v>58</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" customHeight="1" ht="18">
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-    </row>
-    <row r="4" spans="1:8" customHeight="1" ht="18">
-      <c r="B4" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" customHeight="1" ht="18">
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-    </row>
-    <row r="6" spans="1:8" customHeight="1" ht="18">
-      <c r="B6" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-    </row>
-    <row r="7" spans="1:8" customHeight="1" ht="18">
-      <c r="B7" s="15"/>
-      <c r="C7" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="F7" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="G7" s="14"/>
-      <c r="H7" s="15" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" customHeight="1" ht="18">
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>

--- a/tests/test.xlsx
+++ b/tests/test.xlsx
@@ -12,18 +12,19 @@
     <sheet name="sheet2{$title}" sheetId="3" r:id="rId6"/>
     <sheet name="a{strtoupper($st)}z" sheetId="4" r:id="rId7"/>
     <sheet name="row" sheetId="5" r:id="rId8"/>
-    <sheet name="rowcol" sheetId="6" r:id="rId9"/>
-    <sheet name="rowif" sheetId="7" r:id="rId10"/>
-    <sheet name="colif" sheetId="8" r:id="rId11"/>
-    <sheet name="ifmisc" sheetId="9" r:id="rId12"/>
-    <sheet name="roweach" sheetId="10" r:id="rId13"/>
-    <sheet name="coleach" sheetId="11" r:id="rId14"/>
-    <sheet name="rowshift" sheetId="12" r:id="rId15"/>
-    <sheet name="colshift" sheetId="13" r:id="rId16"/>
-    <sheet name="merge" sheetId="14" r:id="rId17"/>
-    <sheet name="effector" sheetId="15" r:id="rId18"/>
-    <sheet name="misc" sheetId="16" r:id="rId19"/>
-    <sheet name="util" sheetId="17" r:id="rId20"/>
+    <sheet name="col" sheetId="6" r:id="rId9"/>
+    <sheet name="rowcol" sheetId="7" r:id="rId10"/>
+    <sheet name="rowif" sheetId="8" r:id="rId11"/>
+    <sheet name="colif" sheetId="9" r:id="rId12"/>
+    <sheet name="ifmisc" sheetId="10" r:id="rId13"/>
+    <sheet name="roweach" sheetId="11" r:id="rId14"/>
+    <sheet name="coleach" sheetId="12" r:id="rId15"/>
+    <sheet name="rowshift" sheetId="13" r:id="rId16"/>
+    <sheet name="colshift" sheetId="14" r:id="rId17"/>
+    <sheet name="merge" sheetId="15" r:id="rId18"/>
+    <sheet name="effector" sheetId="16" r:id="rId19"/>
+    <sheet name="misc" sheetId="17" r:id="rId20"/>
+    <sheet name="util" sheetId="18" r:id="rId21"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="156">
   <si>
     <t>{$A1}</t>
   </si>
@@ -83,33 +84,7 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">{row $</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="ＭＳ ゴシック"/>
-        <b val="false"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FF000000"/>
-        <sz val="11"/>
-        <u val="none"/>
-      </rPr>
-      <t xml:space="preserve">row</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="ＭＳ ゴシック"/>
-        <b val="false"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FF000000"/>
-        <sz val="11"/>
-        <u val="none"/>
-      </rPr>
-      <t xml:space="preserve">1}</t>
-    </r>
+    <t>{row $row1=&gt;"{$index}-{$first}-{$last} {$k}:{$v}"}</t>
   </si>
   <si>
     <t>{row $row2}</t>
@@ -135,6 +110,15 @@
     </r>
   </si>
   <si>
+    <t>{col $col1 =&gt; "{$index}-{$first}-{$last} {$k}:{$v}"}</t>
+  </si>
+  <si>
+    <t>{col $col2}</t>
+  </si>
+  <si>
+    <t>a{col $col3}z</t>
+  </si>
+  <si>
     <t>{rowcol $csv1:false}</t>
   </si>
   <si>
@@ -366,6 +350,24 @@
     </r>
   </si>
   <si>
+    <t>top</t>
+  </si>
+  <si>
+    <t>left</t>
+  </si>
+  <si>
+    <t>{roweach $empty}</t>
+  </si>
+  <si>
+    <t>{$dummy}</t>
+  </si>
+  <si>
+    <t>right</t>
+  </si>
+  <si>
+    <t>bottom</t>
+  </si>
+  <si>
     <t>{coleach $dummys1}</t>
   </si>
   <si>
@@ -411,25 +413,49 @@
     <t>n</t>
   </si>
   <si>
+    <t>prefix{rowshift $empty}{/rowshift}suffix</t>
+  </si>
+  <si>
     <t>{colshift $values}</t>
   </si>
   <si>
     <t>{/colshift}</t>
   </si>
   <si>
-    <t>{if $empty}</t>
-  </si>
-  <si>
-    <t>{roweach $empty}</t>
-  </si>
-  <si>
-    <t>{coleach $empty}</t>
-  </si>
-  <si>
-    <t>{rowshift $empty}</t>
-  </si>
-  <si>
-    <t>{colshift $empty}</t>
+    <t>{colshift $empty}{/colshift}</t>
+  </si>
+  <si>
+    <t>消える結合は赤、残る結合は青</t>
+  </si>
+  <si>
+    <t>{if $empty}if</t>
+  </si>
+  <si>
+    <t>/if{/if}</t>
+  </si>
+  <si>
+    <t>{roweach $empty}roweach</t>
+  </si>
+  <si>
+    <t>/roweach{/roweach}</t>
+  </si>
+  <si>
+    <t>{coleach $empty}coleach</t>
+  </si>
+  <si>
+    <t>/coleach{/coleach}</t>
+  </si>
+  <si>
+    <t>{rowshift $empty}rowshift</t>
+  </si>
+  <si>
+    <t>/rowshift{/rowshift}</t>
+  </si>
+  <si>
+    <t>{colshift $empty}colshift</t>
+  </si>
+  <si>
+    <t>/colshift{/colshift}</t>
   </si>
   <si>
     <t>{$Name.$Link("util!B2")}</t>
@@ -843,7 +869,7 @@
       <name val="ＭＳ ゴシック"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -894,6 +920,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEE0000"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
@@ -926,17 +964,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="19">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
-      <alignment vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
       <alignment vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
@@ -957,43 +989,13 @@
     <xf xfId="0" fontId="0" numFmtId="0" fillId="6" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
       <alignment vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
-      <alignment vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="7" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
-      <alignment vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="7" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
-      <alignment vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="7" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
-      <alignment vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="7" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
-      <alignment vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="5" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
       <alignment vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="8" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
-      <alignment vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="7" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
       <alignment vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
@@ -1005,19 +1007,19 @@
     <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="9" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
       <alignment vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="5" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="9" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="10" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="8" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="11" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
@@ -1322,45 +1324,45 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="9" customWidth="true" style="17"/>
-    <col min="2" max="2" width="9" customWidth="true" style="17"/>
+    <col min="1" max="1" width="9" customWidth="true" style="0"/>
+    <col min="2" max="2" width="9" customWidth="true" style="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="17" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="17" t="s">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="17" t="s">
+      <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1369,15 +1371,6 @@
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" r:id="rId1ps"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-  <tableParts count="0"/>
 </worksheet>
 </file>
 
@@ -1386,129 +1379,187 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="true" defaultRowHeight="18" defaultColWidth="12.5" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="2" spans="1:8" customHeight="1" ht="18">
-      <c r="B2" s="1" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13" t="s">
+        <v>58</v>
+      </c>
+      <c r="E13" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1" t="s">
+    </row>
+    <row r="14" spans="1:5">
+      <c r="B14" t="s">
         <v>60</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="C14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" t="s">
         <v>61</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" customHeight="1" ht="18">
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-    </row>
-    <row r="4" spans="1:8" customHeight="1" ht="18">
-      <c r="B4" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" customHeight="1" ht="18">
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-    </row>
-    <row r="6" spans="1:8" customHeight="1" ht="18">
-      <c r="B6" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-    </row>
-    <row r="7" spans="1:8" customHeight="1" ht="18">
-      <c r="B7" s="15"/>
-      <c r="C7" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="F7" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="G7" s="14"/>
-      <c r="H7" s="15" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" customHeight="1" ht="18">
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>26</v>
+      </c>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-  <tableParts count="0"/>
 </worksheet>
 </file>
 
@@ -1517,110 +1568,170 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="true" defaultRowHeight="18" defaultColWidth="12.5" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:8" customHeight="1" ht="18">
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-    </row>
-    <row r="2" spans="1:8" customHeight="1" ht="18">
+    <row r="2" spans="1:9" customHeight="1" ht="18">
       <c r="B2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" customHeight="1" ht="18">
+      <c r="B4" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" customHeight="1" ht="18">
+      <c r="B6" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="C2" s="2"/>
-    </row>
-    <row r="3" spans="1:8" customHeight="1" ht="18">
-      <c r="B3" s="1"/>
-      <c r="C3" s="2"/>
-    </row>
-    <row r="4" spans="1:8" customHeight="1" ht="18">
-      <c r="B4" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C4" s="2"/>
-    </row>
-    <row r="5" spans="1:8" customHeight="1" ht="18">
-      <c r="B5" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C5" s="2"/>
-    </row>
-    <row r="6" spans="1:8" customHeight="1" ht="18">
-      <c r="B6" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C6" s="2"/>
-    </row>
-    <row r="7" spans="1:8" customHeight="1" ht="18">
-      <c r="B7" s="1"/>
-      <c r="C7" s="2"/>
-    </row>
-    <row r="8" spans="1:8" customHeight="1" ht="18">
-      <c r="B8" s="1" t="s">
+      <c r="C6" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+    </row>
+    <row r="7" spans="1:9" customHeight="1" ht="18">
+      <c r="B7" s="8"/>
+      <c r="C7" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="C8" s="2"/>
-    </row>
-    <row r="10" spans="1:8" customHeight="1" ht="18">
-      <c r="A10" s="3" t="s">
+      <c r="D7" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="11" spans="1:8" customHeight="1" ht="18">
-      <c r="A11" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" customHeight="1" ht="18">
-      <c r="A12" s="3" t="s">
+    <row r="8" spans="1:9" customHeight="1" ht="18">
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+    </row>
+    <row r="10" spans="1:9" customHeight="1" ht="18">
+      <c r="B10" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="13" spans="1:8" customHeight="1" ht="18">
-      <c r="A13" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" customHeight="1" ht="18">
-      <c r="A14" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" customHeight="1" ht="18">
-      <c r="A15" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" customHeight="1" ht="18">
-      <c r="A16" s="3" t="s">
-        <v>72</v>
+    <row r="11" spans="1:9" customHeight="1" ht="18">
+      <c r="A11" t="s">
+        <v>75</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="H11" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="I11" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" customHeight="1" ht="18">
+      <c r="A12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="H12" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="I12" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" customHeight="1" ht="18">
+      <c r="B13" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-  <tableParts count="0"/>
+  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" r:id="rId1ps"/>
 </worksheet>
 </file>
 
@@ -1629,7 +1740,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -1637,64 +1748,77 @@
   </sheetViews>
   <sheetFormatPr customHeight="true" defaultRowHeight="18" defaultColWidth="12.5" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:4" customHeight="1" ht="18">
-      <c r="B1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="D1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" customHeight="1" ht="18">
-      <c r="B2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" customHeight="1" ht="18">
-      <c r="B3" t="s">
+    <row r="2" spans="1:3" customHeight="1" ht="18">
+      <c r="B2" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C3" s="4" t="s">
+    </row>
+    <row r="3" spans="1:3" customHeight="1" ht="18">
+      <c r="B3" s="1"/>
+    </row>
+    <row r="4" spans="1:3" customHeight="1" ht="18">
+      <c r="B4" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" customHeight="1" ht="18">
+      <c r="B5" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" customHeight="1" ht="18">
+      <c r="B6" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" customHeight="1" ht="18">
+      <c r="B7" s="1"/>
+    </row>
+    <row r="8" spans="1:3" customHeight="1" ht="18">
+      <c r="B8" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D3" t="s">
+    </row>
+    <row r="10" spans="1:3" customHeight="1" ht="18">
+      <c r="C10" s="2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="4" spans="1:4" customHeight="1" ht="18">
-      <c r="B4" t="s">
+    <row r="11" spans="1:3" customHeight="1" ht="18">
+      <c r="C11" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" customHeight="1" ht="18">
+      <c r="C12" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C4" t="s">
-        <v>84</v>
-      </c>
-      <c r="D4" t="s">
-        <v>85</v>
+    </row>
+    <row r="13" spans="1:3" customHeight="1" ht="18">
+      <c r="C13" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" customHeight="1" ht="18">
+      <c r="C14" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" customHeight="1" ht="18">
+      <c r="C15" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" customHeight="1" ht="18">
+      <c r="C16" s="2" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-  <tableParts count="0"/>
+  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" r:id="rId1ps"/>
 </worksheet>
 </file>
 
@@ -1703,7 +1827,93 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr customHeight="true" defaultRowHeight="18" defaultColWidth="12.5" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" spans="1:5" customHeight="1" ht="18">
+      <c r="C1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" customHeight="1" ht="18">
+      <c r="C2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" customHeight="1" ht="18">
+      <c r="C3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" customHeight="1" ht="18">
+      <c r="C4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" customHeight="1" ht="18">
+      <c r="B6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" customHeight="1" ht="18">
+      <c r="A7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="C7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" customHeight="1" ht="18">
+      <c r="B8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" r:id="rId1ps"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -1713,191 +1923,72 @@
   <sheetData>
     <row r="1" spans="1:5" customHeight="1" ht="18">
       <c r="B1" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="C1" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="D1" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="E1" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:5" customHeight="1" ht="18">
-      <c r="B2" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>87</v>
+      <c r="B2" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>97</v>
       </c>
       <c r="E2" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:5" customHeight="1" ht="18">
       <c r="B3" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="C3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" customHeight="1" ht="18">
+      <c r="C5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" customHeight="1" ht="18">
+      <c r="B6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="D6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" customHeight="1" ht="18">
+      <c r="C7" t="s">
         <v>79</v>
-      </c>
-      <c r="D3" t="s">
-        <v>82</v>
-      </c>
-      <c r="E3" t="s">
-        <v>85</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-  <tableParts count="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:E19"/>
-  <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr customHeight="true" defaultRowHeight="18" defaultColWidth="12.5" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData>
-    <row r="2" spans="1:5" customHeight="1" ht="18">
-      <c r="A2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-    </row>
-    <row r="3" spans="1:5" customHeight="1" ht="18">
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" customHeight="1" ht="18">
-      <c r="B5" t="s">
-        <v>89</v>
-      </c>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" customHeight="1" ht="18">
-      <c r="B6" s="28"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-    </row>
-    <row r="7" spans="1:5" customHeight="1" ht="18">
-      <c r="A7" t="s">
-        <v>90</v>
-      </c>
-      <c r="B7" s="28"/>
-      <c r="C7" s="10"/>
-    </row>
-    <row r="8" spans="1:5" customHeight="1" ht="18">
-      <c r="A8" s="28"/>
-      <c r="B8" s="28"/>
-      <c r="C8" s="10"/>
-    </row>
-    <row r="9" spans="1:5" customHeight="1" ht="18">
-      <c r="A9" s="28"/>
-      <c r="B9" s="28"/>
-      <c r="C9" s="10"/>
-    </row>
-    <row r="10" spans="1:5" customHeight="1" ht="18">
-      <c r="A10" t="s">
-        <v>72</v>
-      </c>
-      <c r="B10" s="28"/>
-      <c r="C10" s="10"/>
-    </row>
-    <row r="12" spans="1:5" customHeight="1" ht="18">
-      <c r="B12" t="s">
-        <v>91</v>
-      </c>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
-      <c r="E12" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" customHeight="1" ht="18">
-      <c r="B13" s="28"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
-    </row>
-    <row r="16" spans="1:5" customHeight="1" ht="18">
-      <c r="B16" t="s">
-        <v>92</v>
-      </c>
-      <c r="C16" s="28"/>
-    </row>
-    <row r="17" spans="1:5" customHeight="1" ht="18">
-      <c r="B17" s="28"/>
-      <c r="C17" s="28"/>
-    </row>
-    <row r="18" spans="1:5" customHeight="1" ht="18">
-      <c r="B18" s="28"/>
-      <c r="C18" s="28"/>
-    </row>
-    <row r="19" spans="1:5" customHeight="1" ht="18">
-      <c r="B19" t="s">
-        <v>87</v>
-      </c>
-      <c r="C19" s="28"/>
-    </row>
-  </sheetData>
-  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <mergeCells>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="B13:E13"/>
-  </mergeCells>
-  <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-  <tableParts count="0"/>
+  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" r:id="rId1ps"/>
 </worksheet>
 </file>
 
@@ -1906,10 +1997,133 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
+  <dimension ref="A1:E20"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr customHeight="true" defaultRowHeight="18" defaultColWidth="12.5" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" spans="1:5" customHeight="1" ht="18">
+      <c r="B1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" customHeight="1" ht="18">
+      <c r="A3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+    </row>
+    <row r="4" spans="1:5" customHeight="1" ht="18">
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" customHeight="1" ht="18">
+      <c r="B6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" customHeight="1" ht="18">
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+    </row>
+    <row r="8" spans="1:5" customHeight="1" ht="18">
+      <c r="A8" t="s">
+        <v>104</v>
+      </c>
+      <c r="B8" s="17"/>
+    </row>
+    <row r="9" spans="1:5" customHeight="1" ht="18">
+      <c r="A9" s="16"/>
+      <c r="B9" s="17"/>
+    </row>
+    <row r="10" spans="1:5" customHeight="1" ht="18">
+      <c r="A10" s="16"/>
+      <c r="B10" s="17"/>
+    </row>
+    <row r="11" spans="1:5" customHeight="1" ht="18">
+      <c r="A11" t="s">
+        <v>105</v>
+      </c>
+      <c r="B11" s="17"/>
+    </row>
+    <row r="13" spans="1:5" customHeight="1" ht="18">
+      <c r="B13" t="s">
+        <v>106</v>
+      </c>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" customHeight="1" ht="18">
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+    </row>
+    <row r="17" spans="1:5" customHeight="1" ht="18">
+      <c r="B17" t="s">
+        <v>108</v>
+      </c>
+      <c r="C17" s="17"/>
+    </row>
+    <row r="18" spans="1:5" customHeight="1" ht="18">
+      <c r="B18" s="16"/>
+      <c r="C18" s="17"/>
+    </row>
+    <row r="19" spans="1:5" customHeight="1" ht="18">
+      <c r="B19" s="16"/>
+      <c r="C19" s="17"/>
+    </row>
+    <row r="20" spans="1:5" customHeight="1" ht="18">
+      <c r="B20" t="s">
+        <v>109</v>
+      </c>
+      <c r="C20" s="17"/>
+    </row>
+  </sheetData>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <mergeCells>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C17:C20"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="B3:C4"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="B14:E14"/>
+  </mergeCells>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" r:id="rId1ps"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="true" defaultRowHeight="18" defaultColWidth="12.5" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1919,87 +2133,87 @@
   <sheetData>
     <row r="1" spans="1:5" customHeight="1" ht="18">
       <c r="A1" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:5" customHeight="1" ht="18">
       <c r="A2" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="B2" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:5" customHeight="1" ht="18">
       <c r="A3" t="s">
-        <v>96</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:5" customHeight="1" ht="18">
       <c r="A4" t="s">
-        <v>97</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:5" customHeight="1" ht="18">
       <c r="A5" t="s">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="B5" t="s">
-        <v>99</v>
+        <v>116</v>
       </c>
       <c r="C5" t="s">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="D5" t="s">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="E5" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" customHeight="1" ht="18" s="17" customFormat="1">
-      <c r="A6" s="17" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" customHeight="1" ht="18" s="17" customFormat="1">
-      <c r="A7" s="18" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" customHeight="1" ht="18" s="17" customFormat="1">
-      <c r="A8" s="18" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" customHeight="1" ht="18" s="17" customFormat="1">
-      <c r="A9" s="18" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" customHeight="1" ht="18" s="17" customFormat="1">
-      <c r="A10" s="18" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" customHeight="1" ht="18" s="17" customFormat="1">
-      <c r="A11" s="18" t="s">
-        <v>108</v>
+        <v>119</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" customHeight="1" ht="18">
+      <c r="A6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" customHeight="1" ht="18">
+      <c r="A7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" customHeight="1" ht="18">
+      <c r="A8" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" customHeight="1" ht="18">
+      <c r="A9" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" customHeight="1" ht="18">
+      <c r="A10" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" customHeight="1" ht="18">
+      <c r="A11" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="12" spans="1:5" customHeight="1" ht="18">
       <c r="A12" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13" spans="1:5" customHeight="1" ht="18">
       <c r="A13" t="s">
-        <v>110</v>
+        <v>127</v>
       </c>
     </row>
     <row r="14" spans="1:5" customHeight="1" ht="18">
       <c r="A14" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -2007,19 +2221,10 @@
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" r:id="rId1ps"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-  <tableParts count="0"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2034,20 +2239,20 @@
   <sheetData>
     <row r="1" spans="1:3" customHeight="1" ht="18">
       <c r="A1" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:3" customHeight="1" ht="18">
       <c r="A2" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:3" customHeight="1" ht="18">
       <c r="A3" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="C3" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -2055,19 +2260,10 @@
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-  <tableParts count="0"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2075,244 +2271,239 @@
   <dimension ref="A1:AC29"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="S6" sqref="S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="true" defaultRowHeight="18" defaultColWidth="3" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="29" max="29" width="3" style="9"/>
+    <col min="29" max="29" width="3" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" customHeight="1" ht="18">
-      <c r="A1" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>77</v>
+      <c r="A1" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:29" customHeight="1" ht="18">
-      <c r="A2" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>77</v>
+      <c r="A2" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:29" customHeight="1" ht="18">
-      <c r="A3" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>77</v>
+      <c r="A3" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:29" customHeight="1" ht="18">
-      <c r="A4" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>77</v>
+      <c r="A4" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:29" customHeight="1" ht="18">
-      <c r="A5" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>77</v>
+      <c r="A5" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:29" customHeight="1" ht="18">
-      <c r="B7" s="30" t="s">
-        <v>122</v>
-      </c>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="29" t="s">
-        <v>123</v>
-      </c>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
+      <c r="B7" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
     </row>
     <row r="10" spans="1:29" customHeight="1" ht="18">
-      <c r="A10" s="5">
+      <c r="A10" s="3">
         <v>1</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="3">
         <f>A10 * 1</f>
         <v>1</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="3">
         <f>A10 * 2</f>
         <v>2</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="3">
         <f>A10 * 3</f>
         <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:29" customHeight="1" ht="18">
-      <c r="A11" s="5">
+      <c r="A11" s="3">
         <v>2</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="3">
         <f>A11 * 1</f>
         <v>2</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="3">
         <f>A11 * 2</f>
         <v>4</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="3">
         <f>A11 * 3</f>
         <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:29" customHeight="1" ht="18">
-      <c r="A12" s="5">
+      <c r="A12" s="3">
         <v>3</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="3">
         <f>A12 * 1</f>
         <v>3</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="3">
         <f>A12 * 2</f>
         <v>6</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="3">
         <f>A12 * 3</f>
         <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:29" customHeight="1" ht="18">
       <c r="A14" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="B14" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="C14" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
     </row>
     <row r="15" spans="1:29" customHeight="1" ht="18">
       <c r="A15" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:29" customHeight="1" ht="18">
       <c r="A16" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:29" customHeight="1" ht="18">
-      <c r="A18" s="16"/>
-      <c r="B18" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="C18" s="16" t="s">
-        <v>125</v>
-      </c>
-      <c r="D18" s="16" t="s">
-        <v>126</v>
+      <c r="B18" t="s">
+        <v>141</v>
+      </c>
+      <c r="C18" t="s">
+        <v>142</v>
+      </c>
+      <c r="D18" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="19" spans="1:29" customHeight="1" ht="18">
-      <c r="A19" s="16"/>
-      <c r="B19" s="16" t="s">
-        <v>127</v>
-      </c>
-      <c r="C19" s="16" t="s">
-        <v>128</v>
-      </c>
-      <c r="D19" s="16" t="s">
-        <v>129</v>
+      <c r="B19" t="s">
+        <v>144</v>
+      </c>
+      <c r="C19" t="s">
+        <v>145</v>
+      </c>
+      <c r="D19" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="20" spans="1:29" customHeight="1" ht="18">
-      <c r="A20" s="16"/>
-      <c r="B20" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="C20" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="D20" s="16" t="s">
-        <v>132</v>
+      <c r="B20" t="s">
+        <v>147</v>
+      </c>
+      <c r="C20" t="s">
+        <v>148</v>
+      </c>
+      <c r="D20" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="21" spans="1:29" customHeight="1" ht="18">
-      <c r="A21" s="16"/>
-      <c r="B21" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="C21" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="D21" s="16" t="s">
-        <v>135</v>
+      <c r="B21" t="s">
+        <v>150</v>
+      </c>
+      <c r="C21" t="s">
+        <v>151</v>
+      </c>
+      <c r="D21" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="22" spans="1:29" customHeight="1" ht="18">
-      <c r="A22" s="16"/>
-      <c r="B22" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="C22" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="D22" s="16" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="29" spans="1:29" customHeight="1" ht="18" s="9" customFormat="1"/>
+      <c r="B22" t="s">
+        <v>153</v>
+      </c>
+      <c r="C22" t="s">
+        <v>154</v>
+      </c>
+      <c r="D22" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="29" spans="1:29" customHeight="1" ht="18" s="7" customFormat="1"/>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells>
@@ -2322,15 +2513,6 @@
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-  <tableParts count="0"/>
 </worksheet>
 </file>
 
@@ -2347,39 +2529,39 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="9" customWidth="true" style="16"/>
+    <col min="1" max="1" width="9" customWidth="true" style="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="17" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="17" t="s">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="17" t="s">
+      <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2388,15 +2570,6 @@
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" r:id="rId1ps"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-  <tableParts count="0"/>
 </worksheet>
 </file>
 
@@ -2413,39 +2586,39 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="9" customWidth="true" style="16"/>
+    <col min="1" max="1" width="9" customWidth="true" style="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="17" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="17" t="s">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="17" t="s">
+      <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2454,15 +2627,6 @@
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-  <tableParts count="0"/>
 </worksheet>
 </file>
 
@@ -2517,15 +2681,6 @@
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-  <tableParts count="0"/>
 </worksheet>
 </file>
 
@@ -2537,43 +2692,41 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="9" customWidth="true" style="19"/>
-    <col min="2" max="2" width="9" customWidth="true" style="19"/>
+    <col min="1" max="1" width="9" customWidth="true" style="0"/>
+    <col min="2" max="2" width="9" customWidth="true" style="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="19" t="s">
+      <c r="A1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="25"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="13"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="B4" s="23"/>
-      <c r="C4" s="24" t="s">
+      <c r="B4" s="11"/>
+      <c r="C4" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="25"/>
+      <c r="D4" s="13"/>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="19" t="s">
+      <c r="A5" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2582,15 +2735,6 @@
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-  <tableParts count="0"/>
 </worksheet>
 </file>
 
@@ -2607,39 +2751,36 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="9" customWidth="true" style="18"/>
+    <col min="1" max="1" width="9" customWidth="true" style="0"/>
+    <col min="2" max="2" width="9" customWidth="true" style="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="19" t="s">
+      <c r="A1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="21"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="19"/>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="25"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="13"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="19"/>
-      <c r="B4" s="23"/>
-      <c r="C4" s="24" t="s">
+      <c r="B4" s="11"/>
+      <c r="C4" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="25"/>
+      <c r="D4" s="13"/>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="19" t="s">
+      <c r="A5" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2648,19 +2789,65 @@
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-  <tableParts count="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="9" customWidth="true" style="0"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="8"/>
+      <c r="C2" s="10"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="B3" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="12"/>
+      <c r="D3" s="13"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="B4" s="11"/>
+      <c r="C4" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="13"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2675,12 +2862,12 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B2">
         <v>2</v>
@@ -2709,12 +2896,12 @@
         <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -2743,17 +2930,17 @@
         <v>9</v>
       </c>
       <c r="E5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="B7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C7">
         <v>2</v>
@@ -2781,24 +2968,24 @@
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E10" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -2806,19 +2993,10 @@
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-  <tableParts count="0"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2833,16 +3011,16 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C1">
         <v>2</v>
       </c>
       <c r="I1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -2853,7 +3031,7 @@
         <v>4</v>
       </c>
       <c r="I2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -2864,7 +3042,7 @@
         <v>6</v>
       </c>
       <c r="I3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -2875,7 +3053,7 @@
         <v>8</v>
       </c>
       <c r="I4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -2883,25 +3061,25 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" t="s">
         <v>28</v>
-      </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G5" t="s">
-        <v>27</v>
-      </c>
-      <c r="H5" t="s">
-        <v>30</v>
-      </c>
-      <c r="I5" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -2909,212 +3087,5 @@
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-  <tableParts count="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:E15"/>
-  <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>39</v>
-      </c>
-      <c r="B6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
-        <v>42</v>
-      </c>
-      <c r="B7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" t="s">
-        <v>44</v>
-      </c>
-      <c r="B8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="s">
-        <v>46</v>
-      </c>
-      <c r="B9" t="s">
-        <v>47</v>
-      </c>
-      <c r="C9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" t="s">
-        <v>48</v>
-      </c>
-      <c r="B10" t="s">
-        <v>49</v>
-      </c>
-      <c r="C10" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" t="s">
-        <v>50</v>
-      </c>
-      <c r="B11" t="s">
-        <v>51</v>
-      </c>
-      <c r="C11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" t="s">
-        <v>52</v>
-      </c>
-      <c r="B13" t="s">
-        <v>53</v>
-      </c>
-      <c r="C13" t="s">
-        <v>54</v>
-      </c>
-      <c r="D13" t="s">
-        <v>55</v>
-      </c>
-      <c r="E13" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="B14" t="s">
-        <v>57</v>
-      </c>
-      <c r="C14" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" t="s">
-        <v>33</v>
-      </c>
-      <c r="E14" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-  </sheetData>
-  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-  <tableParts count="0"/>
 </worksheet>
 </file>
--- a/tests/test.xlsx
+++ b/tests/test.xlsx
@@ -61,7 +61,7 @@
     <t>{$C3}</t>
   </si>
   <si>
-    <t>{template A1:B2}{$value}value</t>
+    <t>{template A2:B2}{$value}value</t>
   </si>
   <si>
     <t>{$value}</t>
@@ -350,70 +350,70 @@
     </r>
   </si>
   <si>
+    <t>left</t>
+  </si>
+  <si>
+    <t>{roweach $empty}</t>
+  </si>
+  <si>
+    <t>{$dummy}</t>
+  </si>
+  <si>
+    <t>right</t>
+  </si>
+  <si>
+    <t>{coleach $dummys1}</t>
+  </si>
+  <si>
+    <t>{/coleach}</t>
+  </si>
+  <si>
+    <t>{coleach $dummys2}</t>
+  </si>
+  <si>
+    <t>{coleach $children}</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>{rowshift $values}</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>{/rowshift}</t>
+  </si>
+  <si>
+    <t>z</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
     <t>top</t>
   </si>
   <si>
-    <t>left</t>
-  </si>
-  <si>
-    <t>{roweach $empty}</t>
-  </si>
-  <si>
-    <t>{$dummy}</t>
-  </si>
-  <si>
-    <t>right</t>
+    <t>prefix{rowshift $empty}{/rowshift}suffix</t>
   </si>
   <si>
     <t>bottom</t>
-  </si>
-  <si>
-    <t>{coleach $dummys1}</t>
-  </si>
-  <si>
-    <t>{/coleach}</t>
-  </si>
-  <si>
-    <t>{coleach $dummys2}</t>
-  </si>
-  <si>
-    <t>{coleach $children}</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>{rowshift $values}</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>y</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>{/rowshift}</t>
-  </si>
-  <si>
-    <t>z</t>
-  </si>
-  <si>
-    <t>l</t>
-  </si>
-  <si>
-    <t>m</t>
-  </si>
-  <si>
-    <t>n</t>
-  </si>
-  <si>
-    <t>prefix{rowshift $empty}{/rowshift}suffix</t>
   </si>
   <si>
     <t>{colshift $values}</t>
@@ -1324,7 +1324,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1382,7 +1382,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1571,7 +1571,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="true" defaultRowHeight="18" defaultColWidth="12.5" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1630,6 +1630,9 @@
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
+      <c r="I6" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="7" spans="1:9" customHeight="1" ht="18">
       <c r="B7" s="8"/>
@@ -1648,6 +1651,9 @@
       <c r="G7" s="8"/>
       <c r="H7" s="8" t="s">
         <v>73</v>
+      </c>
+      <c r="I7" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:9" customHeight="1" ht="18">
@@ -1658,73 +1664,76 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
+      <c r="I8" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="10" spans="1:9" customHeight="1" ht="18">
       <c r="B10" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:9" customHeight="1" ht="18">
       <c r="A11" t="s">
+        <v>74</v>
+      </c>
+      <c r="B11" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="C11" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="D11" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="H11" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="I11" t="s">
         <v>77</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="F11" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="G11" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="H11" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="I11" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:9" customHeight="1" ht="18">
       <c r="A12" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G12" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H12" s="14" t="s">
         <v>66</v>
       </c>
       <c r="I12" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:9" customHeight="1" ht="18">
       <c r="B13" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1750,7 +1759,7 @@
   <sheetData>
     <row r="2" spans="1:3" customHeight="1" ht="18">
       <c r="B2" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:3" customHeight="1" ht="18">
@@ -1776,12 +1785,12 @@
     </row>
     <row r="8" spans="1:3" customHeight="1" ht="18">
       <c r="B8" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:3" customHeight="1" ht="18">
       <c r="C10" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:3" customHeight="1" ht="18">
@@ -1791,7 +1800,7 @@
     </row>
     <row r="12" spans="1:3" customHeight="1" ht="18">
       <c r="C12" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:3" customHeight="1" ht="18">
@@ -1801,7 +1810,7 @@
     </row>
     <row r="14" spans="1:3" customHeight="1" ht="18">
       <c r="C14" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:3" customHeight="1" ht="18">
@@ -1811,7 +1820,7 @@
     </row>
     <row r="16" spans="1:3" customHeight="1" ht="18">
       <c r="C16" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -1837,67 +1846,67 @@
   <sheetData>
     <row r="1" spans="1:5" customHeight="1" ht="18">
       <c r="C1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1" t="s">
         <v>84</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E1" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:5" customHeight="1" ht="18">
       <c r="C2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>70</v>
       </c>
       <c r="E2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:5" customHeight="1" ht="18">
       <c r="C3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E3" t="s">
         <v>89</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E3" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:5" customHeight="1" ht="18">
       <c r="C4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E4" t="s">
         <v>92</v>
-      </c>
-      <c r="D4" t="s">
-        <v>93</v>
-      </c>
-      <c r="E4" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:5" customHeight="1" ht="18">
       <c r="B6" t="s">
-        <v>74</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:5" customHeight="1" ht="18">
       <c r="A7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:5" customHeight="1" ht="18">
       <c r="B8" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -1923,16 +1932,16 @@
   <sheetData>
     <row r="1" spans="1:5" customHeight="1" ht="18">
       <c r="B1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1" t="s">
         <v>87</v>
       </c>
-      <c r="D1" t="s">
-        <v>89</v>
-      </c>
       <c r="E1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:5" customHeight="1" ht="18">
@@ -1946,42 +1955,42 @@
         <v>97</v>
       </c>
       <c r="E2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:5" customHeight="1" ht="18">
       <c r="B3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C3" t="s">
         <v>86</v>
       </c>
-      <c r="C3" t="s">
-        <v>88</v>
-      </c>
       <c r="D3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:5" customHeight="1" ht="18">
       <c r="C5" t="s">
-        <v>74</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:5" customHeight="1" ht="18">
       <c r="B6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C6" s="14" t="s">
         <v>98</v>
       </c>
       <c r="D6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:5" customHeight="1" ht="18">
       <c r="C7" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -2281,41 +2290,41 @@
   <sheetData>
     <row r="1" spans="1:29" customHeight="1" ht="18">
       <c r="A1" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:29" customHeight="1" ht="18">
       <c r="A2" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>84</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:29" customHeight="1" ht="18">
       <c r="A3" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>133</v>
@@ -2327,12 +2336,12 @@
         <v>135</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:29" customHeight="1" ht="18">
       <c r="A4" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>136</v>
@@ -2344,24 +2353,24 @@
         <v>138</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:29" customHeight="1" ht="18">
       <c r="A5" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:29" customHeight="1" ht="18">
@@ -2429,23 +2438,23 @@
     </row>
     <row r="14" spans="1:29" customHeight="1" ht="18">
       <c r="A14" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B14" t="s">
+        <v>85</v>
+      </c>
+      <c r="C14" t="s">
         <v>87</v>
-      </c>
-      <c r="C14" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="15" spans="1:29" customHeight="1" ht="18">
       <c r="A15" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16" spans="1:29" customHeight="1" ht="18">
       <c r="A16" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="1:29" customHeight="1" ht="18">
